--- a/submission/00d02be79f49_TGS.xlsx
+++ b/submission/00d02be79f49_TGS.xlsx
@@ -396,7 +396,7 @@
         <v>9912</v>
       </c>
       <c r="B2">
-        <v>117.9684982299805</v>
+        <v>129.2550659179688</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>9912.5</v>
       </c>
       <c r="B3">
-        <v>118.9181747436523</v>
+        <v>134.9189147949219</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>9913</v>
       </c>
       <c r="B4">
-        <v>105.0034255981445</v>
+        <v>134.6764373779297</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>9913.5</v>
       </c>
       <c r="B5">
-        <v>109.0019454956055</v>
+        <v>151.2435302734375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9914</v>
       </c>
       <c r="B6">
-        <v>119.8942718505859</v>
+        <v>144.811767578125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>9914.5</v>
       </c>
       <c r="B7">
-        <v>123.009880065918</v>
+        <v>147.6207885742188</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>9915</v>
       </c>
       <c r="B8">
-        <v>92.54704284667969</v>
+        <v>135.2622833251953</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>9915.5</v>
       </c>
       <c r="B9">
-        <v>93.02533721923828</v>
+        <v>121.4876937866211</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>9916</v>
       </c>
       <c r="B10">
-        <v>91.07401275634766</v>
+        <v>130.3407440185547</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>9916.5</v>
       </c>
       <c r="B11">
-        <v>91.28372955322266</v>
+        <v>122.5108947753906</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>9917</v>
       </c>
       <c r="B12">
-        <v>98.11164093017578</v>
+        <v>151.3771057128906</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>9917.5</v>
       </c>
       <c r="B13">
-        <v>101.3926010131836</v>
+        <v>158.9150238037109</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9918</v>
       </c>
       <c r="B14">
-        <v>100.9874725341797</v>
+        <v>149.88916015625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>9918.5</v>
       </c>
       <c r="B15">
-        <v>118.6848754882812</v>
+        <v>153.1438446044922</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>9919</v>
       </c>
       <c r="B16">
-        <v>105.8760986328125</v>
+        <v>151.8148498535156</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>9919.5</v>
       </c>
       <c r="B17">
-        <v>99.73722076416016</v>
+        <v>149.7203369140625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>9920</v>
       </c>
       <c r="B18">
-        <v>94.94717407226562</v>
+        <v>140.3981323242188</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>9920.5</v>
       </c>
       <c r="B19">
-        <v>93.14711761474609</v>
+        <v>118.0409851074219</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>9921</v>
       </c>
       <c r="B20">
-        <v>92.03690338134766</v>
+        <v>115.0039901733398</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>9921.5</v>
       </c>
       <c r="B21">
-        <v>92.03690338134766</v>
+        <v>129.6076965332031</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>9922</v>
       </c>
       <c r="B22">
-        <v>92.03690338134766</v>
+        <v>129.6076965332031</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>9922.5</v>
       </c>
       <c r="B23">
-        <v>92.86131286621094</v>
+        <v>129.662353515625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>9923</v>
       </c>
       <c r="B24">
-        <v>93.14711761474609</v>
+        <v>117.055061340332</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>9923.5</v>
       </c>
       <c r="B25">
-        <v>94.10751342773438</v>
+        <v>131.9187622070312</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>9924</v>
       </c>
       <c r="B26">
-        <v>99.76579284667969</v>
+        <v>137.4485473632812</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>9924.5</v>
       </c>
       <c r="B27">
-        <v>99.76579284667969</v>
+        <v>147.7688598632812</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>9925</v>
       </c>
       <c r="B28">
-        <v>94.10751342773438</v>
+        <v>131.6639404296875</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>9925.5</v>
       </c>
       <c r="B29">
-        <v>93.21163177490234</v>
+        <v>117.1164855957031</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>9926</v>
       </c>
       <c r="B30">
-        <v>93.21163177490234</v>
+        <v>125.9175262451172</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>9926.5</v>
       </c>
       <c r="B31">
-        <v>91.51488494873047</v>
+        <v>119.3576583862305</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>9927</v>
       </c>
       <c r="B32">
-        <v>91.4908447265625</v>
+        <v>125.8312759399414</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>9927.5</v>
       </c>
       <c r="B33">
-        <v>91.55306243896484</v>
+        <v>117.5538482666016</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>9928</v>
       </c>
       <c r="B34">
-        <v>91.40935516357422</v>
+        <v>119.2604904174805</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>9928.5</v>
       </c>
       <c r="B35">
-        <v>91.40935516357422</v>
+        <v>120.8060302734375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>9929</v>
       </c>
       <c r="B36">
-        <v>91.55306243896484</v>
+        <v>123.1605758666992</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>9929.5</v>
       </c>
       <c r="B37">
-        <v>91.4908447265625</v>
+        <v>133.4473571777344</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>9930</v>
       </c>
       <c r="B38">
-        <v>91.4908447265625</v>
+        <v>128.4779052734375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>9930.5</v>
       </c>
       <c r="B39">
-        <v>93.21163177490234</v>
+        <v>126.1100692749023</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>9931</v>
       </c>
       <c r="B40">
-        <v>93.21163177490234</v>
+        <v>118.0990676879883</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>9931.5</v>
       </c>
       <c r="B41">
-        <v>93.21163177490234</v>
+        <v>117.1131439208984</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>9932</v>
       </c>
       <c r="B42">
-        <v>93.21163177490234</v>
+        <v>121.4834594726562</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>9932.5</v>
       </c>
       <c r="B43">
-        <v>93.21163177490234</v>
+        <v>115.9491806030273</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>9933</v>
       </c>
       <c r="B44">
-        <v>92.38722229003906</v>
+        <v>122.7420501708984</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>9933.5</v>
       </c>
       <c r="B45">
-        <v>92.38722229003906</v>
+        <v>114.7361145019531</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>9934</v>
       </c>
       <c r="B46">
-        <v>92.38722229003906</v>
+        <v>114.7361145019531</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>9934.5</v>
       </c>
       <c r="B47">
-        <v>93.21163177490234</v>
+        <v>115.9491806030273</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>9935</v>
       </c>
       <c r="B48">
-        <v>93.21163177490234</v>
+        <v>119.4123077392578</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>9935.5</v>
       </c>
       <c r="B49">
-        <v>91.56953430175781</v>
+        <v>119.4123077392578</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>9936</v>
       </c>
       <c r="B50">
-        <v>91.56953430175781</v>
+        <v>125.047737121582</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>9936.5</v>
       </c>
       <c r="B51">
-        <v>91.56953430175781</v>
+        <v>117.659797668457</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>9937</v>
       </c>
       <c r="B52">
-        <v>91.51488494873047</v>
+        <v>115.0713195800781</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>9937.5</v>
       </c>
       <c r="B53">
-        <v>91.51488494873047</v>
+        <v>115.0713195800781</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>9938</v>
       </c>
       <c r="B54">
-        <v>91.51488494873047</v>
+        <v>114.7361145019531</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>9938.5</v>
       </c>
       <c r="B55">
-        <v>91.4908447265625</v>
+        <v>127.5705337524414</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>9939</v>
       </c>
       <c r="B56">
-        <v>91.4908447265625</v>
+        <v>126.8228759765625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>9939.5</v>
       </c>
       <c r="B57">
-        <v>91.4908447265625</v>
+        <v>131.164794921875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>9940</v>
       </c>
       <c r="B58">
-        <v>91.4908447265625</v>
+        <v>131.164794921875</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>9940.5</v>
       </c>
       <c r="B59">
-        <v>91.4908447265625</v>
+        <v>131.164794921875</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>9941</v>
       </c>
       <c r="B60">
-        <v>91.4908447265625</v>
+        <v>134.964111328125</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>9941.5</v>
       </c>
       <c r="B61">
-        <v>91.4908447265625</v>
+        <v>135.1350402832031</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>9942</v>
       </c>
       <c r="B62">
-        <v>91.09706878662109</v>
+        <v>143.7238464355469</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>9942.5</v>
       </c>
       <c r="B63">
-        <v>98.39744567871094</v>
+        <v>145.7133941650391</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>9943</v>
       </c>
       <c r="B64">
-        <v>99.76579284667969</v>
+        <v>151.301513671875</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>9943.5</v>
       </c>
       <c r="B65">
-        <v>101.5330963134766</v>
+        <v>155.7391357421875</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>9944</v>
       </c>
       <c r="B66">
-        <v>101.6907730102539</v>
+        <v>151.1835784912109</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>9944.5</v>
       </c>
       <c r="B67">
-        <v>98.34548950195312</v>
+        <v>149.7342834472656</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>9945</v>
       </c>
       <c r="B68">
-        <v>91.79132843017578</v>
+        <v>137.2838287353516</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>9945.5</v>
       </c>
       <c r="B69">
-        <v>91.4908447265625</v>
+        <v>128.1872100830078</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>9946</v>
       </c>
       <c r="B70">
-        <v>91.35470581054688</v>
+        <v>111.9736175537109</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>9946.5</v>
       </c>
       <c r="B71">
-        <v>91.42462921142578</v>
+        <v>102.6868515014648</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>9947</v>
       </c>
       <c r="B72">
-        <v>92.37972259521484</v>
+        <v>102.9521408081055</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>9947.5</v>
       </c>
       <c r="B73">
-        <v>91.42462921142578</v>
+        <v>103.1511459350586</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>9948</v>
       </c>
       <c r="B74">
-        <v>91.35470581054688</v>
+        <v>105.2883453369141</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>9948.5</v>
       </c>
       <c r="B75">
-        <v>91.62164306640625</v>
+        <v>106.3122024536133</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>9949</v>
       </c>
       <c r="B76">
-        <v>91.4984130859375</v>
+        <v>106.8827285766602</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>9949.5</v>
       </c>
       <c r="B77">
-        <v>91.4984130859375</v>
+        <v>113.4476699829102</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>9950</v>
       </c>
       <c r="B78">
-        <v>91.4984130859375</v>
+        <v>106.8827285766602</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>9950.5</v>
       </c>
       <c r="B79">
-        <v>91.4984130859375</v>
+        <v>114.0979766845703</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>9951</v>
       </c>
       <c r="B80">
-        <v>91.55306243896484</v>
+        <v>126.3054656982422</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>9951.5</v>
       </c>
       <c r="B81">
-        <v>91.55306243896484</v>
+        <v>129.4747009277344</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>9952</v>
       </c>
       <c r="B82">
-        <v>91.08059692382812</v>
+        <v>138.6289825439453</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>9952.5</v>
       </c>
       <c r="B83">
-        <v>91.08059692382812</v>
+        <v>138.6289825439453</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>9953</v>
       </c>
       <c r="B84">
-        <v>91.01837921142578</v>
+        <v>134.964111328125</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>9953.5</v>
       </c>
       <c r="B85">
-        <v>93.21163177490234</v>
+        <v>148.5941009521484</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>9954</v>
       </c>
       <c r="B86">
-        <v>93.21163177490234</v>
+        <v>133.3115997314453</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>9954.5</v>
       </c>
       <c r="B87">
-        <v>93.21163177490234</v>
+        <v>137.2382659912109</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>9955</v>
       </c>
       <c r="B88">
-        <v>93.21163177490234</v>
+        <v>133.8582611083984</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>9955.5</v>
       </c>
       <c r="B89">
-        <v>91.09706878662109</v>
+        <v>144.0049896240234</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>9956</v>
       </c>
       <c r="B90">
-        <v>92.73916625976562</v>
+        <v>140.234130859375</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>9956.5</v>
       </c>
       <c r="B91">
-        <v>92.73916625976562</v>
+        <v>145.5424499511719</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>9957</v>
       </c>
       <c r="B92">
-        <v>94.10751342773438</v>
+        <v>133.3279571533203</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>9957.5</v>
       </c>
       <c r="B93">
-        <v>94.10751342773438</v>
+        <v>147.2715454101562</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>9958</v>
       </c>
       <c r="B94">
-        <v>101.3437728881836</v>
+        <v>145.4235687255859</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>9958.5</v>
       </c>
       <c r="B95">
-        <v>95.59880828857422</v>
+        <v>164.7674713134766</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>9959</v>
       </c>
       <c r="B96">
-        <v>95.59880828857422</v>
+        <v>161.9977264404297</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>9959.5</v>
       </c>
       <c r="B97">
-        <v>95.59880828857422</v>
+        <v>161.9977264404297</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>9960</v>
       </c>
       <c r="B98">
-        <v>95.59880828857422</v>
+        <v>158.7108612060547</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>9960.5</v>
       </c>
       <c r="B99">
-        <v>95.59880828857422</v>
+        <v>161.9977264404297</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>9961</v>
       </c>
       <c r="B100">
-        <v>95.76232147216797</v>
+        <v>162.0692596435547</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>9961.5</v>
       </c>
       <c r="B101">
-        <v>95.18512725830078</v>
+        <v>140.5417022705078</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>9962</v>
       </c>
       <c r="B102">
-        <v>95.0081787109375</v>
+        <v>139.8140563964844</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>9962.5</v>
       </c>
       <c r="B103">
-        <v>94.94717407226562</v>
+        <v>140.3981323242188</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>9963</v>
       </c>
       <c r="B104">
-        <v>94.72509765625</v>
+        <v>131.0565490722656</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>9963.5</v>
       </c>
       <c r="B105">
-        <v>93.14711761474609</v>
+        <v>131.2644348144531</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>9964</v>
       </c>
       <c r="B106">
-        <v>93.14711761474609</v>
+        <v>129.7941589355469</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>9964.5</v>
       </c>
       <c r="B107">
-        <v>93.15354919433594</v>
+        <v>117.0584030151367</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>9965</v>
       </c>
       <c r="B108">
-        <v>91.56953430175781</v>
+        <v>133.5164642333984</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>9965.5</v>
       </c>
       <c r="B109">
-        <v>91.08059692382812</v>
+        <v>138.6289825439453</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>9966</v>
       </c>
       <c r="B110">
-        <v>96.37555694580078</v>
+        <v>141.7415313720703</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>9966.5</v>
       </c>
       <c r="B111">
-        <v>97.72296905517578</v>
+        <v>151.4065246582031</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>9967</v>
       </c>
       <c r="B112">
-        <v>97.80445861816406</v>
+        <v>153.9504241943359</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>9967.5</v>
       </c>
       <c r="B113">
-        <v>101.3437728881836</v>
+        <v>151.4640350341797</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>9968</v>
       </c>
       <c r="B114">
-        <v>101.6268539428711</v>
+        <v>152.7559967041016</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>9968.5</v>
       </c>
       <c r="B115">
-        <v>103.4966659545898</v>
+        <v>157.883544921875</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>9969</v>
       </c>
       <c r="B116">
-        <v>103.0243911743164</v>
+        <v>151.3773498535156</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>9969.5</v>
       </c>
       <c r="B117">
-        <v>99.76579284667969</v>
+        <v>151.1305847167969</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>9970</v>
       </c>
       <c r="B118">
-        <v>99.76579284667969</v>
+        <v>151.1305847167969</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>9970.5</v>
       </c>
       <c r="B119">
-        <v>101.5330963134766</v>
+        <v>155.2977600097656</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>9971</v>
       </c>
       <c r="B120">
-        <v>101.5330963134766</v>
+        <v>155.2977600097656</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>9971.5</v>
       </c>
       <c r="B121">
-        <v>101.5330963134766</v>
+        <v>155.2977600097656</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>9972</v>
       </c>
       <c r="B122">
-        <v>99.76579284667969</v>
+        <v>151.4640350341797</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>9972.5</v>
       </c>
       <c r="B123">
-        <v>99.76579284667969</v>
+        <v>148.6104583740234</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>9973</v>
       </c>
       <c r="B124">
-        <v>99.76579284667969</v>
+        <v>139.9870452880859</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>9973.5</v>
       </c>
       <c r="B125">
-        <v>99.76579284667969</v>
+        <v>149.59814453125</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>9974</v>
       </c>
       <c r="B126">
-        <v>99.76579284667969</v>
+        <v>151.4640350341797</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>9974.5</v>
       </c>
       <c r="B127">
-        <v>99.54160308837891</v>
+        <v>155.7391357421875</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>9975</v>
       </c>
       <c r="B128">
-        <v>99.52524566650391</v>
+        <v>154.1820678710938</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>9975.5</v>
       </c>
       <c r="B129">
-        <v>99.52524566650391</v>
+        <v>151.1790313720703</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>9976</v>
       </c>
       <c r="B130">
-        <v>100.0582580566406</v>
+        <v>164.2471466064453</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>9976.5</v>
       </c>
       <c r="B131">
-        <v>100.461311340332</v>
+        <v>154.4350738525391</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>9977</v>
       </c>
       <c r="B132">
-        <v>98.98011016845703</v>
+        <v>161.9812927246094</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>9977.5</v>
       </c>
       <c r="B133">
-        <v>101.5330963134766</v>
+        <v>155.4687042236328</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>9978</v>
       </c>
       <c r="B134">
-        <v>93.2215576171875</v>
+        <v>131.5097961425781</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>9978.5</v>
       </c>
       <c r="B135">
-        <v>94.72509765625</v>
+        <v>137.8753509521484</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>9979</v>
       </c>
       <c r="B136">
-        <v>92.32270812988281</v>
+        <v>131.2510070800781</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>9979.5</v>
       </c>
       <c r="B137">
-        <v>91.51488494873047</v>
+        <v>115.1663665771484</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>9980</v>
       </c>
       <c r="B138">
-        <v>91.4984130859375</v>
+        <v>113.9819641113281</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>9980.5</v>
       </c>
       <c r="B139">
-        <v>92.43437194824219</v>
+        <v>113.1309509277344</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>9981</v>
       </c>
       <c r="B140">
-        <v>92.43437194824219</v>
+        <v>114.1116943359375</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>9981.5</v>
       </c>
       <c r="B141">
-        <v>92.43437194824219</v>
+        <v>115.6722640991211</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>9982</v>
       </c>
       <c r="B142">
-        <v>91.47927856445312</v>
+        <v>112.306884765625</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>9982.5</v>
       </c>
       <c r="B143">
-        <v>91.55306243896484</v>
+        <v>114.8619842529297</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>9983</v>
       </c>
       <c r="B144">
-        <v>93.21163177490234</v>
+        <v>120.6947708129883</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>9983.5</v>
       </c>
       <c r="B145">
-        <v>93.14711761474609</v>
+        <v>131.1347351074219</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>9984</v>
       </c>
       <c r="B146">
-        <v>101.729362487793</v>
+        <v>151.614013671875</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>9984.5</v>
       </c>
       <c r="B147">
-        <v>103.7222747802734</v>
+        <v>143.8452911376953</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>9985</v>
       </c>
       <c r="B148">
-        <v>103.7222747802734</v>
+        <v>148.8219909667969</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>9985.5</v>
       </c>
       <c r="B149">
-        <v>103.7222747802734</v>
+        <v>147.5319519042969</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>9986</v>
       </c>
       <c r="B150">
-        <v>103.3331527709961</v>
+        <v>159.0196228027344</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>9986.5</v>
       </c>
       <c r="B151">
-        <v>99.76579284667969</v>
+        <v>130.9717102050781</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>9987</v>
       </c>
       <c r="B152">
-        <v>93.82170867919922</v>
+        <v>134.3365478515625</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>9987.5</v>
       </c>
       <c r="B153">
-        <v>94.89932250976562</v>
+        <v>145.2323760986328</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>9988</v>
       </c>
       <c r="B154">
-        <v>95.12493133544922</v>
+        <v>137.0200347900391</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>9988.5</v>
       </c>
       <c r="B155">
-        <v>97.04560089111328</v>
+        <v>149.8795166015625</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>9989</v>
       </c>
       <c r="B156">
-        <v>96.42415618896484</v>
+        <v>129.4660797119141</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>9989.5</v>
       </c>
       <c r="B157">
-        <v>98.5880126953125</v>
+        <v>136.5532684326172</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>9990</v>
       </c>
       <c r="B158">
-        <v>98.5880126953125</v>
+        <v>136.5532684326172</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>9990.5</v>
       </c>
       <c r="B159">
-        <v>98.62638092041016</v>
+        <v>135.0863189697266</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>9991</v>
       </c>
       <c r="B160">
-        <v>95.33629608154297</v>
+        <v>130.5835418701172</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>9991.5</v>
       </c>
       <c r="B161">
-        <v>94.63841247558594</v>
+        <v>144.6844787597656</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>9992</v>
       </c>
       <c r="B162">
-        <v>91.56953430175781</v>
+        <v>127.2118377685547</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>9992.5</v>
       </c>
       <c r="B163">
-        <v>91.4908447265625</v>
+        <v>128.1880340576172</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>9993</v>
       </c>
       <c r="B164">
-        <v>91.55306243896484</v>
+        <v>120.4692764282227</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>9993.5</v>
       </c>
       <c r="B165">
-        <v>91.4908447265625</v>
+        <v>131.33642578125</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>9994</v>
       </c>
       <c r="B166">
-        <v>91.4908447265625</v>
+        <v>128.4779052734375</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>9994.5</v>
       </c>
       <c r="B167">
-        <v>91.4908447265625</v>
+        <v>131.164794921875</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>9995</v>
       </c>
       <c r="B168">
-        <v>91.4908447265625</v>
+        <v>134.964111328125</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>9995.5</v>
       </c>
       <c r="B169">
-        <v>93.82170867919922</v>
+        <v>133.0421447753906</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>9996</v>
       </c>
       <c r="B170">
-        <v>95.62176513671875</v>
+        <v>154.8738403320312</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>9996.5</v>
       </c>
       <c r="B171">
-        <v>94.35260772705078</v>
+        <v>143.2457885742188</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>9997</v>
       </c>
       <c r="B172">
-        <v>92.86131286621094</v>
+        <v>115.0586395263672</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>9997.5</v>
       </c>
       <c r="B173">
-        <v>92.92582702636719</v>
+        <v>124.7619323730469</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>9998</v>
       </c>
       <c r="B174">
-        <v>92.92582702636719</v>
+        <v>127.9985961914062</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>9998.5</v>
       </c>
       <c r="B175">
-        <v>93.02592468261719</v>
+        <v>127.5520324707031</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1788,7 +1788,7 @@
         <v>9999</v>
       </c>
       <c r="B176">
-        <v>93.92180633544922</v>
+        <v>133.1422424316406</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>9999.5</v>
       </c>
       <c r="B177">
-        <v>92.82795715332031</v>
+        <v>133.1422424316406</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1804,7 +1804,7 @@
         <v>10000</v>
       </c>
       <c r="B178">
-        <v>94.79681396484375</v>
+        <v>143.3549652099609</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>10000.5</v>
       </c>
       <c r="B179">
-        <v>98.66245269775391</v>
+        <v>139.9388427734375</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1820,7 +1820,7 @@
         <v>10001</v>
       </c>
       <c r="B180">
-        <v>99.90492248535156</v>
+        <v>151.9710388183594</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1828,7 +1828,7 @@
         <v>10001.5</v>
       </c>
       <c r="B181">
-        <v>99.6988525390625</v>
+        <v>146.5223541259766</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1836,7 +1836,7 @@
         <v>10002</v>
       </c>
       <c r="B182">
-        <v>101.6691665649414</v>
+        <v>150.0606231689453</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1844,7 +1844,7 @@
         <v>10002.5</v>
       </c>
       <c r="B183">
-        <v>102.9253692626953</v>
+        <v>155.3824768066406</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1852,7 +1852,7 @@
         <v>10003</v>
       </c>
       <c r="B184">
-        <v>101.3473892211914</v>
+        <v>155.1120452880859</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>10003.5</v>
       </c>
       <c r="B185">
-        <v>99.33953857421875</v>
+        <v>153.8254089355469</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>10004</v>
       </c>
       <c r="B186">
-        <v>97.92220306396484</v>
+        <v>157.3778991699219</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1876,7 +1876,7 @@
         <v>10004.5</v>
       </c>
       <c r="B187">
-        <v>96.201416015625</v>
+        <v>148.8466186523438</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1884,7 +1884,7 @@
         <v>10005</v>
       </c>
       <c r="B188">
-        <v>97.61875152587891</v>
+        <v>153.7647094726562</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1892,7 +1892,7 @@
         <v>10005.5</v>
       </c>
       <c r="B189">
-        <v>97.61875152587891</v>
+        <v>153.7647094726562</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1900,7 +1900,7 @@
         <v>10006</v>
       </c>
       <c r="B190">
-        <v>96.77675628662109</v>
+        <v>148.7989807128906</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1908,7 +1908,7 @@
         <v>10006.5</v>
       </c>
       <c r="B191">
-        <v>98.49754333496094</v>
+        <v>154.5052642822266</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1916,7 +1916,7 @@
         <v>10007</v>
       </c>
       <c r="B192">
-        <v>99.86589050292969</v>
+        <v>149.4029998779297</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1924,7 +1924,7 @@
         <v>10007.5</v>
       </c>
       <c r="B193">
-        <v>100.0079650878906</v>
+        <v>155.3978576660156</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1932,7 +1932,7 @@
         <v>10008</v>
       </c>
       <c r="B194">
-        <v>101.6331939697266</v>
+        <v>155.3978576660156</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1940,7 +1940,7 @@
         <v>10008.5</v>
       </c>
       <c r="B195">
-        <v>101.6331939697266</v>
+        <v>155.3978576660156</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1948,7 +1948,7 @@
         <v>10009</v>
       </c>
       <c r="B196">
-        <v>100.2158584594727</v>
+        <v>151.5641326904297</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1956,7 +1956,7 @@
         <v>10009.5</v>
       </c>
       <c r="B197">
-        <v>94.20761108398438</v>
+        <v>133.0862579345703</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1964,7 +1964,7 @@
         <v>10010</v>
       </c>
       <c r="B198">
-        <v>93.31172943115234</v>
+        <v>126.0176239013672</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>10010.5</v>
       </c>
       <c r="B199">
-        <v>93.24721527099609</v>
+        <v>118.1410827636719</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>10011</v>
       </c>
       <c r="B200">
-        <v>96.07108306884766</v>
+        <v>161.0287933349609</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>10011.5</v>
       </c>
       <c r="B201">
-        <v>106.0706329345703</v>
+        <v>145.5502166748047</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>10012</v>
       </c>
       <c r="B202">
-        <v>107.6434020996094</v>
+        <v>156.5679321289062</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>10012.5</v>
       </c>
       <c r="B203">
-        <v>111.9926300048828</v>
+        <v>156.0535278320312</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>10013</v>
       </c>
       <c r="B204">
-        <v>105.849006652832</v>
+        <v>153.3849639892578</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2020,7 +2020,7 @@
         <v>10013.5</v>
       </c>
       <c r="B205">
-        <v>101.9549713134766</v>
+        <v>150.346435546875</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>10014</v>
       </c>
       <c r="B206">
-        <v>101.9768218994141</v>
+        <v>155.0369720458984</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2036,7 +2036,7 @@
         <v>10014.5</v>
       </c>
       <c r="B207">
-        <v>103.4966659545898</v>
+        <v>157.883544921875</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2044,7 +2044,7 @@
         <v>10015</v>
       </c>
       <c r="B208">
-        <v>103.4966659545898</v>
+        <v>152.8216247558594</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>10015.5</v>
       </c>
       <c r="B209">
-        <v>101.3571853637695</v>
+        <v>152.5414276123047</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>10016</v>
       </c>
       <c r="B210">
-        <v>101.3571853637695</v>
+        <v>155.3111724853516</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2068,7 +2068,7 @@
         <v>10016.5</v>
       </c>
       <c r="B211">
-        <v>99.86589050292969</v>
+        <v>147.3716430664062</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2076,7 +2076,7 @@
         <v>10017</v>
       </c>
       <c r="B212">
-        <v>99.62534332275391</v>
+        <v>154.1112213134766</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2084,7 +2084,7 @@
         <v>10017.5</v>
       </c>
       <c r="B213">
-        <v>97.90455627441406</v>
+        <v>147.353759765625</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2092,7 +2092,7 @@
         <v>10018</v>
       </c>
       <c r="B214">
-        <v>98.04986572265625</v>
+        <v>157.4711761474609</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2100,7 +2100,7 @@
         <v>10018.5</v>
       </c>
       <c r="B215">
-        <v>98.29048156738281</v>
+        <v>140.6182708740234</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>10019</v>
       </c>
       <c r="B216">
-        <v>97.96837615966797</v>
+        <v>152.5268402099609</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>10019.5</v>
       </c>
       <c r="B217">
-        <v>96.08502960205078</v>
+        <v>151.5534362792969</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>10020</v>
       </c>
       <c r="B218">
-        <v>96.08502960205078</v>
+        <v>151.5534362792969</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>10020.5</v>
       </c>
       <c r="B219">
-        <v>96.08502960205078</v>
+        <v>151.5534362792969</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>10021</v>
       </c>
       <c r="B220">
-        <v>96.08502960205078</v>
+        <v>149.9105834960938</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2148,7 +2148,7 @@
         <v>10021.5</v>
       </c>
       <c r="B221">
-        <v>96.08502960205078</v>
+        <v>151.6768951416016</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2156,7 +2156,7 @@
         <v>10022</v>
       </c>
       <c r="B222">
-        <v>95.34954833984375</v>
+        <v>145.8711090087891</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2164,7 +2164,7 @@
         <v>10022.5</v>
       </c>
       <c r="B223">
-        <v>95.43103790283203</v>
+        <v>153.8513336181641</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2172,7 +2172,7 @@
         <v>10023</v>
       </c>
       <c r="B224">
-        <v>95.22019195556641</v>
+        <v>161.7883911132812</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2180,7 +2180,7 @@
         <v>10023.5</v>
       </c>
       <c r="B225">
-        <v>100.6008071899414</v>
+        <v>157.2431640625</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>10024</v>
       </c>
       <c r="B226">
-        <v>102.4008636474609</v>
+        <v>163.3290405273438</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>10024.5</v>
       </c>
       <c r="B227">
-        <v>103.0430908203125</v>
+        <v>148.9552459716797</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>10025</v>
       </c>
       <c r="B228">
-        <v>104.5395202636719</v>
+        <v>152.6497192382812</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>10025.5</v>
       </c>
       <c r="B229">
-        <v>117.7203826904297</v>
+        <v>150.4271697998047</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>10026</v>
       </c>
       <c r="B230">
-        <v>106.8692321777344</v>
+        <v>150.60693359375</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>10026.5</v>
       </c>
       <c r="B231">
-        <v>106.5839233398438</v>
+        <v>146.5098571777344</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>10027</v>
       </c>
       <c r="B232">
-        <v>106.1304168701172</v>
+        <v>154.9688568115234</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>10027.5</v>
       </c>
       <c r="B233">
-        <v>102.6898880004883</v>
+        <v>150.0146331787109</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>10028</v>
       </c>
       <c r="B234">
-        <v>102.714973449707</v>
+        <v>160.50390625</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>10028.5</v>
       </c>
       <c r="B235">
-        <v>99.47476959228516</v>
+        <v>155.3795623779297</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>10029</v>
       </c>
       <c r="B236">
-        <v>114.8280410766602</v>
+        <v>161.3361358642578</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>10029.5</v>
       </c>
       <c r="B237">
-        <v>120.1874008178711</v>
+        <v>158.9418334960938</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>10030</v>
       </c>
       <c r="B238">
-        <v>123.6514358520508</v>
+        <v>160.6230621337891</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>10030.5</v>
       </c>
       <c r="B239">
-        <v>111.479362487793</v>
+        <v>162.199951171875</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>10031</v>
       </c>
       <c r="B240">
-        <v>104.7130813598633</v>
+        <v>146.5985260009766</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2308,7 +2308,7 @@
         <v>10031.5</v>
       </c>
       <c r="B241">
-        <v>100.6969757080078</v>
+        <v>152.8066558837891</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2316,7 +2316,7 @@
         <v>10032</v>
       </c>
       <c r="B242">
-        <v>98.83350372314453</v>
+        <v>150.8908843994141</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2324,7 +2324,7 @@
         <v>10032.5</v>
       </c>
       <c r="B243">
-        <v>99.1834716796875</v>
+        <v>151.5939178466797</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2332,7 +2332,7 @@
         <v>10033</v>
       </c>
       <c r="B244">
-        <v>102.4642791748047</v>
+        <v>161.9512481689453</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2340,7 +2340,7 @@
         <v>10033.5</v>
       </c>
       <c r="B245">
-        <v>106.1201095581055</v>
+        <v>152.8010559082031</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2348,7 +2348,7 @@
         <v>10034</v>
       </c>
       <c r="B246">
-        <v>112.7630996704102</v>
+        <v>153.2637634277344</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2356,7 +2356,7 @@
         <v>10034.5</v>
       </c>
       <c r="B247">
-        <v>118.9118347167969</v>
+        <v>155.6606750488281</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>10035</v>
       </c>
       <c r="B248">
-        <v>122.0451278686523</v>
+        <v>154.1754150390625</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>10035.5</v>
       </c>
       <c r="B249">
-        <v>125.6968078613281</v>
+        <v>155.8368377685547</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>10036</v>
       </c>
       <c r="B250">
-        <v>131.5424346923828</v>
+        <v>160.872314453125</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>10036.5</v>
       </c>
       <c r="B251">
-        <v>128.1118621826172</v>
+        <v>166.29052734375</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>10037</v>
       </c>
       <c r="B252">
-        <v>116.4800186157227</v>
+        <v>159.3175659179688</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2404,7 +2404,7 @@
         <v>10037.5</v>
       </c>
       <c r="B253">
-        <v>112.5149765014648</v>
+        <v>161.0399322509766</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>10038</v>
       </c>
       <c r="B254">
-        <v>122.2626190185547</v>
+        <v>156.6990814208984</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>10038.5</v>
       </c>
       <c r="B255">
-        <v>106.4836196899414</v>
+        <v>161.7943115234375</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2428,7 +2428,7 @@
         <v>10039</v>
       </c>
       <c r="B256">
-        <v>103.0430908203125</v>
+        <v>148.9552459716797</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2436,7 +2436,7 @@
         <v>10039.5</v>
       </c>
       <c r="B257">
-        <v>102.6898880004883</v>
+        <v>157.9464721679688</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2444,7 +2444,7 @@
         <v>10040</v>
       </c>
       <c r="B258">
-        <v>106.8692321777344</v>
+        <v>146.9509887695312</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2452,7 +2452,7 @@
         <v>10040.5</v>
       </c>
       <c r="B259">
-        <v>110.6102752685547</v>
+        <v>153.0431365966797</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>10041</v>
       </c>
       <c r="B260">
-        <v>105.1019287109375</v>
+        <v>157.4631805419922</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>10041.5</v>
       </c>
       <c r="B261">
-        <v>106.5839233398438</v>
+        <v>146.7800445556641</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2476,7 +2476,7 @@
         <v>10042</v>
       </c>
       <c r="B262">
-        <v>117.7203826904297</v>
+        <v>150.4271697998047</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2484,7 +2484,7 @@
         <v>10042.5</v>
       </c>
       <c r="B263">
-        <v>117.5261077880859</v>
+        <v>152.4385223388672</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2492,7 +2492,7 @@
         <v>10043</v>
       </c>
       <c r="B264">
-        <v>117.5261077880859</v>
+        <v>155.9505157470703</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>10043.5</v>
       </c>
       <c r="B265">
-        <v>117.5261077880859</v>
+        <v>155.9505157470703</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>10044</v>
       </c>
       <c r="B266">
-        <v>103.2434158325195</v>
+        <v>152.8010559082031</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>10044.5</v>
       </c>
       <c r="B267">
-        <v>99.80288696289062</v>
+        <v>149.7335052490234</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>10045</v>
       </c>
       <c r="B268">
-        <v>102.8488159179688</v>
+        <v>160.3096313476562</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>10045.5</v>
       </c>
       <c r="B269">
-        <v>103.0430908203125</v>
+        <v>148.9552459716797</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>10046</v>
       </c>
       <c r="B270">
-        <v>157.3586578369141</v>
+        <v>160.6455230712891</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -7132,7 +7132,7 @@
         <v>10333</v>
       </c>
       <c r="B844">
-        <v>151.6712493896484</v>
+        <v>152.5265808105469</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7140,7 +7140,7 @@
         <v>10333.5</v>
       </c>
       <c r="B845">
-        <v>101.3415832519531</v>
+        <v>156.3306884765625</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7148,7 +7148,7 @@
         <v>10334</v>
       </c>
       <c r="B846">
-        <v>101.6697006225586</v>
+        <v>142.0349426269531</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7156,7 +7156,7 @@
         <v>10334.5</v>
       </c>
       <c r="B847">
-        <v>88.60770416259766</v>
+        <v>129.4834442138672</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7164,7 +7164,7 @@
         <v>10335</v>
       </c>
       <c r="B848">
-        <v>90.91670989990234</v>
+        <v>136.3011322021484</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7172,7 +7172,7 @@
         <v>10335.5</v>
       </c>
       <c r="B849">
-        <v>85.82954406738281</v>
+        <v>137.6103363037109</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7180,7 +7180,7 @@
         <v>10336</v>
       </c>
       <c r="B850">
-        <v>85.82954406738281</v>
+        <v>137.3399047851562</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7188,7 +7188,7 @@
         <v>10336.5</v>
       </c>
       <c r="B851">
-        <v>85.54423522949219</v>
+        <v>137.6103363037109</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7196,7 +7196,7 @@
         <v>10337</v>
       </c>
       <c r="B852">
-        <v>85.09072875976562</v>
+        <v>137.2607574462891</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7204,7 +7204,7 @@
         <v>10337.5</v>
       </c>
       <c r="B853">
-        <v>96.01142120361328</v>
+        <v>150.3315887451172</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7212,7 +7212,7 @@
         <v>10338</v>
       </c>
       <c r="B854">
-        <v>101.6697006225586</v>
+        <v>150.0611572265625</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7220,7 +7220,7 @@
         <v>10338.5</v>
       </c>
       <c r="B855">
-        <v>88.34319305419922</v>
+        <v>128.3962860107422</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7228,7 +7228,7 @@
         <v>10339</v>
       </c>
       <c r="B856">
-        <v>88.34319305419922</v>
+        <v>128.3962860107422</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7236,7 +7236,7 @@
         <v>10339.5</v>
       </c>
       <c r="B857">
-        <v>101.6697006225586</v>
+        <v>150.3315887451172</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7244,7 +7244,7 @@
         <v>10340</v>
       </c>
       <c r="B858">
-        <v>101.3415832519531</v>
+        <v>159.6175537109375</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7252,7 +7252,7 @@
         <v>10340.5</v>
       </c>
       <c r="B859">
-        <v>101.0719146728516</v>
+        <v>155.1968383789062</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7260,7 +7260,7 @@
         <v>10341</v>
       </c>
       <c r="B860">
-        <v>93.92234039306641</v>
+        <v>149.6711120605469</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7268,7 +7268,7 @@
         <v>10341.5</v>
       </c>
       <c r="B861">
-        <v>93.03638458251953</v>
+        <v>131.3246154785156</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7276,7 +7276,7 @@
         <v>10342</v>
       </c>
       <c r="B862">
-        <v>93.92234039306641</v>
+        <v>137.2403717041016</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7284,7 +7284,7 @@
         <v>10342.5</v>
       </c>
       <c r="B863">
-        <v>95.50032043457031</v>
+        <v>151.1163330078125</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7292,7 +7292,7 @@
         <v>10343</v>
       </c>
       <c r="B864">
-        <v>94.52767944335938</v>
+        <v>143.5588684082031</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7300,7 +7300,7 @@
         <v>10343.5</v>
       </c>
       <c r="B865">
-        <v>94.89985656738281</v>
+        <v>140.4273681640625</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7308,7 +7308,7 @@
         <v>10344</v>
       </c>
       <c r="B866">
-        <v>94.82541656494141</v>
+        <v>143.7975616455078</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7316,7 +7316,7 @@
         <v>10344.5</v>
       </c>
       <c r="B867">
-        <v>94.45323944091797</v>
+        <v>139.8116760253906</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7324,7 +7324,7 @@
         <v>10345</v>
       </c>
       <c r="B868">
-        <v>94.45323944091797</v>
+        <v>143.5173645019531</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7332,7 +7332,7 @@
         <v>10345.5</v>
       </c>
       <c r="B869">
-        <v>94.45323944091797</v>
+        <v>143.5173645019531</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7340,7 +7340,7 @@
         <v>10346</v>
       </c>
       <c r="B870">
-        <v>94.45323944091797</v>
+        <v>143.3939056396484</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7348,7 +7348,7 @@
         <v>10346.5</v>
       </c>
       <c r="B871">
-        <v>94.45323944091797</v>
+        <v>145.2487640380859</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7356,7 +7356,7 @@
         <v>10347</v>
       </c>
       <c r="B872">
-        <v>94.52767944335938</v>
+        <v>145.3231964111328</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7364,7 +7364,7 @@
         <v>10347.5</v>
       </c>
       <c r="B873">
-        <v>94.52767944335938</v>
+        <v>140.1471710205078</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7372,7 +7372,7 @@
         <v>10348</v>
       </c>
       <c r="B874">
-        <v>94.52767944335938</v>
+        <v>148.5095367431641</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7380,7 +7380,7 @@
         <v>10348.5</v>
       </c>
       <c r="B875">
-        <v>92.8284912109375</v>
+        <v>144.9603729248047</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7388,7 +7388,7 @@
         <v>10349</v>
       </c>
       <c r="B876">
-        <v>95.50032043457031</v>
+        <v>150.9454040527344</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7396,7 +7396,7 @@
         <v>10349.5</v>
       </c>
       <c r="B877">
-        <v>95.41363525390625</v>
+        <v>161.8125457763672</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7404,7 +7404,7 @@
         <v>10350</v>
       </c>
       <c r="B878">
-        <v>96.01142120361328</v>
+        <v>156.3306884765625</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7412,7 +7412,7 @@
         <v>10350.5</v>
       </c>
       <c r="B879">
-        <v>82.68491363525391</v>
+        <v>129.9064178466797</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7420,7 +7420,7 @@
         <v>10351</v>
       </c>
       <c r="B880">
-        <v>88.34319305419922</v>
+        <v>128.2254638671875</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7428,7 +7428,7 @@
         <v>10351.5</v>
       </c>
       <c r="B881">
-        <v>101.6697006225586</v>
+        <v>150.0611572265625</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7436,7 +7436,7 @@
         <v>10352</v>
       </c>
       <c r="B882">
-        <v>101.6697006225586</v>
+        <v>150.0611572265625</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7444,7 +7444,7 @@
         <v>10352.5</v>
       </c>
       <c r="B883">
-        <v>102.0196685791016</v>
+        <v>156.3306884765625</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7452,7 +7452,7 @@
         <v>10353</v>
       </c>
       <c r="B884">
-        <v>102.0196685791016</v>
+        <v>156.3306884765625</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7460,7 +7460,7 @@
         <v>10353.5</v>
       </c>
       <c r="B885">
-        <v>103.4370040893555</v>
+        <v>152.6416625976562</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7468,7 +7468,7 @@
         <v>10354</v>
       </c>
       <c r="B886">
-        <v>104.2824096679688</v>
+        <v>158.9125823974609</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7476,7 +7476,7 @@
         <v>10354.5</v>
       </c>
       <c r="B887">
-        <v>104.7381210327148</v>
+        <v>162.9085388183594</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7484,7 +7484,7 @@
         <v>10355</v>
       </c>
       <c r="B888">
-        <v>104.4293594360352</v>
+        <v>163.9490051269531</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7492,7 +7492,7 @@
         <v>10355.5</v>
       </c>
       <c r="B889">
-        <v>104.635612487793</v>
+        <v>150.9719390869141</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7500,7 +7500,7 @@
         <v>10356</v>
       </c>
       <c r="B890">
-        <v>104.6105270385742</v>
+        <v>161.1935577392578</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7508,7 +7508,7 @@
         <v>10356.5</v>
       </c>
       <c r="B891">
-        <v>103.8974914550781</v>
+        <v>150.6837615966797</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7516,7 +7516,7 @@
         <v>10357</v>
       </c>
       <c r="B892">
-        <v>102.2156448364258</v>
+        <v>143.9841613769531</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7524,7 +7524,7 @@
         <v>10357.5</v>
       </c>
       <c r="B893">
-        <v>101.8656768798828</v>
+        <v>141.5345306396484</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7532,7 +7532,7 @@
         <v>10358</v>
       </c>
       <c r="B894">
-        <v>101.8656768798828</v>
+        <v>149.0413055419922</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7540,7 +7540,7 @@
         <v>10358.5</v>
       </c>
       <c r="B895">
-        <v>101.8656768798828</v>
+        <v>149.0413055419922</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7548,7 +7548,7 @@
         <v>10359</v>
       </c>
       <c r="B896">
-        <v>102.2156448364258</v>
+        <v>155.3108367919922</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7556,7 +7556,7 @@
         <v>10359.5</v>
       </c>
       <c r="B897">
-        <v>102.2156448364258</v>
+        <v>155.3108367919922</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7564,7 +7564,7 @@
         <v>10360</v>
       </c>
       <c r="B898">
-        <v>101.6697006225586</v>
+        <v>150.0611572265625</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7572,7 +7572,7 @@
         <v>10360.5</v>
       </c>
       <c r="B899">
-        <v>101.6697006225586</v>
+        <v>150.0611572265625</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7580,7 +7580,7 @@
         <v>10361</v>
       </c>
       <c r="B900">
-        <v>95.68330383300781</v>
+        <v>143.4197845458984</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7588,7 +7588,7 @@
         <v>10361.5</v>
       </c>
       <c r="B901">
-        <v>92.25701904296875</v>
+        <v>134.0197296142578</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7596,7 +7596,7 @@
         <v>10362</v>
       </c>
       <c r="B902">
-        <v>90.51987457275391</v>
+        <v>144.4757080078125</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7604,7 +7604,7 @@
         <v>10362.5</v>
       </c>
       <c r="B903">
-        <v>91.93586730957031</v>
+        <v>132.0950164794922</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7612,7 +7612,7 @@
         <v>10363</v>
       </c>
       <c r="B904">
-        <v>92.34566497802734</v>
+        <v>116.3032760620117</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7620,7 +7620,7 @@
         <v>10363.5</v>
       </c>
       <c r="B905">
-        <v>90.06388092041016</v>
+        <v>112.9475402832031</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7628,7 +7628,7 @@
         <v>10364</v>
       </c>
       <c r="B906">
-        <v>89.34730529785156</v>
+        <v>101.701774597168</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7636,7 +7636,7 @@
         <v>10364.5</v>
       </c>
       <c r="B907">
-        <v>89.34730529785156</v>
+        <v>100.8542098999023</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7644,7 +7644,7 @@
         <v>10365</v>
       </c>
       <c r="B908">
-        <v>89.45468139648438</v>
+        <v>102.4576187133789</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7652,7 +7652,7 @@
         <v>10365.5</v>
       </c>
       <c r="B909">
-        <v>86.73036193847656</v>
+        <v>102.6784591674805</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7660,7 +7660,7 @@
         <v>10366</v>
       </c>
       <c r="B910">
-        <v>90.58656311035156</v>
+        <v>100.8542098999023</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7668,7 +7668,7 @@
         <v>10366.5</v>
       </c>
       <c r="B911">
-        <v>90.92612457275391</v>
+        <v>101.3276062011719</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7676,7 +7676,7 @@
         <v>10367</v>
       </c>
       <c r="B912">
-        <v>91.07102966308594</v>
+        <v>118.9138031005859</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7684,7 +7684,7 @@
         <v>10367.5</v>
       </c>
       <c r="B913">
-        <v>94.61436462402344</v>
+        <v>134.4371795654297</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7692,7 +7692,7 @@
         <v>10368</v>
       </c>
       <c r="B914">
-        <v>102.0196685791016</v>
+        <v>150.3315887451172</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7700,7 +7700,7 @@
         <v>10368.5</v>
       </c>
       <c r="B915">
-        <v>105.0710144042969</v>
+        <v>152.9568481445312</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7708,7 +7708,7 @@
         <v>10369</v>
       </c>
       <c r="B916">
-        <v>107.4597549438477</v>
+        <v>149.5578308105469</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7716,7 +7716,7 @@
         <v>10369.5</v>
       </c>
       <c r="B917">
-        <v>103.4370040893555</v>
+        <v>147.6570892333984</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7724,7 +7724,7 @@
         <v>10370</v>
       </c>
       <c r="B918">
-        <v>101.3479232788086</v>
+        <v>155.7652435302734</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7732,7 +7732,7 @@
         <v>10370.5</v>
       </c>
       <c r="B919">
-        <v>96.24037170410156</v>
+        <v>151.884765625</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7740,7 +7740,7 @@
         <v>10371</v>
       </c>
       <c r="B920">
-        <v>91.46340179443359</v>
+        <v>135.9492340087891</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7748,7 +7748,7 @@
         <v>10371.5</v>
       </c>
       <c r="B921">
-        <v>91.93586730957031</v>
+        <v>131.4971771240234</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7756,7 +7756,7 @@
         <v>10372</v>
       </c>
       <c r="B922">
-        <v>91.93586730957031</v>
+        <v>116.3032760620117</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7764,7 +7764,7 @@
         <v>10372.5</v>
       </c>
       <c r="B923">
-        <v>91.93586730957031</v>
+        <v>115.2149276733398</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7772,7 +7772,7 @@
         <v>10373</v>
       </c>
       <c r="B924">
-        <v>92.291015625</v>
+        <v>102.4536361694336</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7780,7 +7780,7 @@
         <v>10373.5</v>
       </c>
       <c r="B925">
-        <v>91.53915405273438</v>
+        <v>100.5757446289062</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7788,7 +7788,7 @@
         <v>10374</v>
       </c>
       <c r="B926">
-        <v>89.34730529785156</v>
+        <v>100.8542098999023</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7796,7 +7796,7 @@
         <v>10374.5</v>
       </c>
       <c r="B927">
-        <v>90.58656311035156</v>
+        <v>100.5757446289062</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7804,7 +7804,7 @@
         <v>10375</v>
       </c>
       <c r="B928">
-        <v>91.88121795654297</v>
+        <v>101.606071472168</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7812,7 +7812,7 @@
         <v>10375.5</v>
       </c>
       <c r="B929">
-        <v>90.856201171875</v>
+        <v>106.0225830078125</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7820,7 +7820,7 @@
         <v>10376</v>
       </c>
       <c r="B930">
-        <v>90.856201171875</v>
+        <v>103.8860931396484</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7828,7 +7828,7 @@
         <v>10376.5</v>
       </c>
       <c r="B931">
-        <v>91.88121795654297</v>
+        <v>101.3276062011719</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7836,7 +7836,7 @@
         <v>10377</v>
       </c>
       <c r="B932">
-        <v>91.88121795654297</v>
+        <v>102.4536361694336</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7844,7 +7844,7 @@
         <v>10377.5</v>
       </c>
       <c r="B933">
-        <v>90.91085052490234</v>
+        <v>117.0483932495117</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7852,7 +7852,7 @@
         <v>10378</v>
       </c>
       <c r="B934">
-        <v>91.05455780029297</v>
+        <v>121.8603897094727</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7860,7 +7860,7 @@
         <v>10378.5</v>
       </c>
       <c r="B935">
-        <v>90.99234008789062</v>
+        <v>128.404296875</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7868,7 +7868,7 @@
         <v>10379</v>
       </c>
       <c r="B936">
-        <v>90.93769073486328</v>
+        <v>119.2178497314453</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7876,7 +7876,7 @@
         <v>10379.5</v>
       </c>
       <c r="B937">
-        <v>90.93769073486328</v>
+        <v>114.3017959594727</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7884,7 +7884,7 @@
         <v>10380</v>
       </c>
       <c r="B938">
-        <v>90.93769073486328</v>
+        <v>117.4686813354492</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7892,7 +7892,7 @@
         <v>10380.5</v>
       </c>
       <c r="B939">
-        <v>91.01638031005859</v>
+        <v>122.2435455322266</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7900,7 +7900,7 @@
         <v>10381</v>
       </c>
       <c r="B940">
-        <v>92.71312713623047</v>
+        <v>114.9040222167969</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7908,7 +7908,7 @@
         <v>10381.5</v>
       </c>
       <c r="B941">
-        <v>92.71312713623047</v>
+        <v>114.9073638916016</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7916,7 +7916,7 @@
         <v>10382</v>
       </c>
       <c r="B942">
-        <v>90.93769073486328</v>
+        <v>119.2178497314453</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7924,7 +7924,7 @@
         <v>10382.5</v>
       </c>
       <c r="B943">
-        <v>90.856201171875</v>
+        <v>103.0951080322266</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7932,7 +7932,7 @@
         <v>10383</v>
       </c>
       <c r="B944">
-        <v>91.27481842041016</v>
+        <v>101.606071472168</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7940,7 +7940,7 @@
         <v>10383.5</v>
       </c>
       <c r="B945">
-        <v>90.856201171875</v>
+        <v>101.2708587646484</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7948,7 +7948,7 @@
         <v>10384</v>
       </c>
       <c r="B946">
-        <v>90.93769073486328</v>
+        <v>116.1499633789062</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7956,7 +7956,7 @@
         <v>10384.5</v>
       </c>
       <c r="B947">
-        <v>92.71312713623047</v>
+        <v>123.2360076904297</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7964,7 +7964,7 @@
         <v>10385</v>
       </c>
       <c r="B948">
-        <v>92.96194458007812</v>
+        <v>131.0792541503906</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7972,7 +7972,7 @@
         <v>10385.5</v>
       </c>
       <c r="B949">
-        <v>94.53992462158203</v>
+        <v>133.0683441162109</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7980,7 +7980,7 @@
         <v>10386</v>
       </c>
       <c r="B950">
-        <v>94.53992462158203</v>
+        <v>133.0683441162109</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7988,7 +7988,7 @@
         <v>10386.5</v>
       </c>
       <c r="B951">
-        <v>94.53992462158203</v>
+        <v>134.3627471923828</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7996,7 +7996,7 @@
         <v>10387</v>
       </c>
       <c r="B952">
-        <v>94.53992462158203</v>
+        <v>133.0683441162109</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8004,7 +8004,7 @@
         <v>10387.5</v>
       </c>
       <c r="B953">
-        <v>94.53992462158203</v>
+        <v>133.0683441162109</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8012,7 +8012,7 @@
         <v>10388</v>
       </c>
       <c r="B954">
-        <v>92.67613983154297</v>
+        <v>130.7934417724609</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8020,7 +8020,7 @@
         <v>10388.5</v>
       </c>
       <c r="B955">
-        <v>92.67613983154297</v>
+        <v>129.3055419921875</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8028,7 +8028,7 @@
         <v>10389</v>
       </c>
       <c r="B956">
-        <v>92.74065399169922</v>
+        <v>117.6280899047852</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8036,7 +8036,7 @@
         <v>10389.5</v>
       </c>
       <c r="B957">
-        <v>91.60291290283203</v>
+        <v>114.5635681152344</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8044,7 +8044,7 @@
         <v>10390</v>
       </c>
       <c r="B958">
-        <v>92.20204925537109</v>
+        <v>115.1627044677734</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8052,7 +8052,7 @@
         <v>10390.5</v>
       </c>
       <c r="B959">
-        <v>92.96194458007812</v>
+        <v>125.6742706298828</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8060,7 +8060,7 @@
         <v>10391</v>
       </c>
       <c r="B960">
-        <v>92.96194458007812</v>
+        <v>129.5913543701172</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8068,7 +8068,7 @@
         <v>10391.5</v>
       </c>
       <c r="B961">
-        <v>92.96194458007812</v>
+        <v>129.5913543701172</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8076,7 +8076,7 @@
         <v>10392</v>
       </c>
       <c r="B962">
-        <v>92.96194458007812</v>
+        <v>131.0792541503906</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8084,7 +8084,7 @@
         <v>10392.5</v>
       </c>
       <c r="B963">
-        <v>94.53992462158203</v>
+        <v>134.3627471923828</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8092,7 +8092,7 @@
         <v>10393</v>
       </c>
       <c r="B964">
-        <v>94.53992462158203</v>
+        <v>134.3627471923828</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8100,7 +8100,7 @@
         <v>10393.5</v>
       </c>
       <c r="B965">
-        <v>92.96194458007812</v>
+        <v>129.5913543701172</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8108,7 +8108,7 @@
         <v>10394</v>
       </c>
       <c r="B966">
-        <v>93.02645874023438</v>
+        <v>117.9138946533203</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8116,7 +8116,7 @@
         <v>10394.5</v>
       </c>
       <c r="B967">
-        <v>91.88871765136719</v>
+        <v>113.1310882568359</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8124,7 +8124,7 @@
         <v>10395</v>
       </c>
       <c r="B968">
-        <v>92.20204925537109</v>
+        <v>114.5509414672852</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8132,7 +8132,7 @@
         <v>10395.5</v>
       </c>
       <c r="B969">
-        <v>92.13753509521484</v>
+        <v>119.0836410522461</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8140,7 +8140,7 @@
         <v>10396</v>
       </c>
       <c r="B970">
-        <v>92.96194458007812</v>
+        <v>130.9495544433594</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8148,7 +8148,7 @@
         <v>10396.5</v>
       </c>
       <c r="B971">
-        <v>92.96194458007812</v>
+        <v>130.9495544433594</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8156,7 +8156,7 @@
         <v>10397</v>
       </c>
       <c r="B972">
-        <v>94.25411987304688</v>
+        <v>132.7825317382812</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8164,7 +8164,7 @@
         <v>10397.5</v>
       </c>
       <c r="B973">
-        <v>94.25411987304688</v>
+        <v>130.4262847900391</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8172,7 +8172,7 @@
         <v>10398</v>
       </c>
       <c r="B974">
-        <v>94.16743469238281</v>
+        <v>144.2134857177734</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8180,7 +8180,7 @@
         <v>10398.5</v>
       </c>
       <c r="B975">
-        <v>94.16743469238281</v>
+        <v>139.3549346923828</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8188,7 +8188,7 @@
         <v>10399</v>
       </c>
       <c r="B976">
-        <v>94.16743469238281</v>
+        <v>139.3549346923828</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8196,7 +8196,7 @@
         <v>10399.5</v>
       </c>
       <c r="B977">
-        <v>94.16743469238281</v>
+        <v>139.3549346923828</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8204,7 +8204,7 @@
         <v>10400</v>
       </c>
       <c r="B978">
-        <v>94.16743469238281</v>
+        <v>139.3549346923828</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8212,7 +8212,7 @@
         <v>10400.5</v>
       </c>
       <c r="B979">
-        <v>94.53992462158203</v>
+        <v>130.8713684082031</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8220,7 +8220,7 @@
         <v>10401</v>
       </c>
       <c r="B980">
-        <v>92.96194458007812</v>
+        <v>132.7265472412109</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8228,7 +8228,7 @@
         <v>10401.5</v>
       </c>
       <c r="B981">
-        <v>93.04281616210938</v>
+        <v>132.8009796142578</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8236,7 +8236,7 @@
         <v>10402</v>
       </c>
       <c r="B982">
-        <v>90.59856414794922</v>
+        <v>144.6967620849609</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8244,7 +8244,7 @@
         <v>10402.5</v>
       </c>
       <c r="B983">
-        <v>90.99234008789062</v>
+        <v>136.4264221191406</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8252,7 +8252,7 @@
         <v>10403</v>
       </c>
       <c r="B984">
-        <v>90.91085052490234</v>
+        <v>113.5988540649414</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8260,7 +8260,7 @@
         <v>10403.5</v>
       </c>
       <c r="B985">
-        <v>91.27481842041016</v>
+        <v>101.606071472168</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8268,7 +8268,7 @@
         <v>10404</v>
       </c>
       <c r="B986">
-        <v>91.88121795654297</v>
+        <v>101.606071472168</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8276,7 +8276,7 @@
         <v>10404.5</v>
       </c>
       <c r="B987">
-        <v>91.88121795654297</v>
+        <v>101.3276062011719</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8284,7 +8284,7 @@
         <v>10405</v>
       </c>
       <c r="B988">
-        <v>91.88121795654297</v>
+        <v>101.606071472168</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8292,7 +8292,7 @@
         <v>10405.5</v>
       </c>
       <c r="B989">
-        <v>91.88121795654297</v>
+        <v>102.4536361694336</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8300,7 +8300,7 @@
         <v>10406</v>
       </c>
       <c r="B990">
-        <v>90.98077392578125</v>
+        <v>116.3588638305664</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8308,7 +8308,7 @@
         <v>10406.5</v>
       </c>
       <c r="B991">
-        <v>90.99234008789062</v>
+        <v>139.6576690673828</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8316,7 +8316,7 @@
         <v>10407</v>
       </c>
       <c r="B992">
-        <v>93.92234039306641</v>
+        <v>132.8009796142578</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8324,7 +8324,7 @@
         <v>10407.5</v>
       </c>
       <c r="B993">
-        <v>94.52767944335938</v>
+        <v>148.3385925292969</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8332,7 +8332,7 @@
         <v>10408</v>
       </c>
       <c r="B994">
-        <v>94.53992462158203</v>
+        <v>133.0683441162109</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8340,7 +8340,7 @@
         <v>10408.5</v>
       </c>
       <c r="B995">
-        <v>92.96194458007812</v>
+        <v>127.4944610595703</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8348,7 +8348,7 @@
         <v>10409</v>
       </c>
       <c r="B996">
-        <v>92.71312713623047</v>
+        <v>114.9040222167969</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8356,7 +8356,7 @@
         <v>10409.5</v>
       </c>
       <c r="B997">
-        <v>91.88871765136719</v>
+        <v>113.1310882568359</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8364,7 +8364,7 @@
         <v>10410</v>
       </c>
       <c r="B998">
-        <v>91.01638031005859</v>
+        <v>110.8814239501953</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8372,7 +8372,7 @@
         <v>10410.5</v>
       </c>
       <c r="B999">
-        <v>90.93769073486328</v>
+        <v>114.6370010375977</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8380,7 +8380,7 @@
         <v>10411</v>
       </c>
       <c r="B1000">
-        <v>90.93769073486328</v>
+        <v>114.3017959594727</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8388,7 +8388,7 @@
         <v>10411.5</v>
       </c>
       <c r="B1001">
-        <v>91.01638031005859</v>
+        <v>122.2435455322266</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8396,7 +8396,7 @@
         <v>10412</v>
       </c>
       <c r="B1002">
-        <v>92.71312713623047</v>
+        <v>118.8830413818359</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8404,7 +8404,7 @@
         <v>10412.5</v>
       </c>
       <c r="B1003">
-        <v>92.96194458007812</v>
+        <v>129.7629852294922</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8412,7 +8412,7 @@
         <v>10413</v>
       </c>
       <c r="B1004">
-        <v>94.52767944335938</v>
+        <v>139.9762268066406</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8420,7 +8420,7 @@
         <v>10413.5</v>
       </c>
       <c r="B1005">
-        <v>94.79734802246094</v>
+        <v>143.6955871582031</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8428,7 +8428,7 @@
         <v>10414</v>
       </c>
       <c r="B1006">
-        <v>94.79734802246094</v>
+        <v>139.5217742919922</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8436,7 +8436,7 @@
         <v>10414.5</v>
       </c>
       <c r="B1007">
-        <v>94.72290802001953</v>
+        <v>144.2684020996094</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8444,7 +8444,7 @@
         <v>10415</v>
       </c>
       <c r="B1008">
-        <v>94.89985656738281</v>
+        <v>140.2564239501953</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8452,7 +8452,7 @@
         <v>10415.5</v>
       </c>
       <c r="B1009">
-        <v>95.41363525390625</v>
+        <v>164.5822906494141</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8460,7 +8460,7 @@
         <v>10416</v>
       </c>
       <c r="B1010">
-        <v>95.50032043457031</v>
+        <v>150.9454040527344</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8468,7 +8468,7 @@
         <v>10416.5</v>
       </c>
       <c r="B1011">
-        <v>95.50032043457031</v>
+        <v>149.5001831054688</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8476,7 +8476,7 @@
         <v>10417</v>
       </c>
       <c r="B1012">
-        <v>95.41363525390625</v>
+        <v>161.6709289550781</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8484,7 +8484,7 @@
         <v>10417.5</v>
       </c>
       <c r="B1013">
-        <v>95.78581237792969</v>
+        <v>154.9459075927734</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8492,7 +8492,7 @@
         <v>10418</v>
       </c>
       <c r="B1014">
-        <v>95.78581237792969</v>
+        <v>153.7382965087891</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8500,7 +8500,7 @@
         <v>10418.5</v>
       </c>
       <c r="B1015">
-        <v>101.444091796875</v>
+        <v>157.5982666015625</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8508,7 +8508,7 @@
         <v>10419</v>
       </c>
       <c r="B1016">
-        <v>101.444091796875</v>
+        <v>152.5363464355469</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8516,7 +8516,7 @@
         <v>10419.5</v>
       </c>
       <c r="B1017">
-        <v>101.444091796875</v>
+        <v>152.5363464355469</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8524,7 +8524,7 @@
         <v>10420</v>
       </c>
       <c r="B1018">
-        <v>95.78581237792969</v>
+        <v>157.2268829345703</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8532,7 +8532,7 @@
         <v>10420.5</v>
       </c>
       <c r="B1019">
-        <v>95.78581237792969</v>
+        <v>162.0927429199219</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8540,7 +8540,7 @@
         <v>10421</v>
       </c>
       <c r="B1020">
-        <v>95.41363525390625</v>
+        <v>161.6709289550781</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8548,7 +8548,7 @@
         <v>10421.5</v>
       </c>
       <c r="B1021">
-        <v>95.41363525390625</v>
+        <v>161.6709289550781</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8556,7 +8556,7 @@
         <v>10422</v>
       </c>
       <c r="B1022">
-        <v>101.444091796875</v>
+        <v>151.5991668701172</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8564,7 +8564,7 @@
         <v>10422.5</v>
       </c>
       <c r="B1023">
-        <v>103.10888671875</v>
+        <v>159.6175537109375</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8572,7 +8572,7 @@
         <v>10423</v>
       </c>
       <c r="B1024">
-        <v>104.6105270385742</v>
+        <v>149.6907043457031</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8580,7 +8580,7 @@
         <v>10423.5</v>
       </c>
       <c r="B1025">
-        <v>104.9637298583984</v>
+        <v>161.4700164794922</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8588,7 +8588,7 @@
         <v>10424</v>
       </c>
       <c r="B1026">
-        <v>104.9637298583984</v>
+        <v>161.6116333007812</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8596,7 +8596,7 @@
         <v>10424.5</v>
       </c>
       <c r="B1027">
-        <v>104.3247222900391</v>
+        <v>158.4558258056641</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8604,7 +8604,7 @@
         <v>10425</v>
       </c>
       <c r="B1028">
-        <v>104.3247222900391</v>
+        <v>149.8153076171875</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8612,7 +8612,7 @@
         <v>10425.5</v>
       </c>
       <c r="B1029">
-        <v>104.0109939575195</v>
+        <v>147.0152435302734</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8620,7 +8620,7 @@
         <v>10426</v>
       </c>
       <c r="B1030">
-        <v>104.275505065918</v>
+        <v>150.8908233642578</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8628,7 +8628,7 @@
         <v>10426.5</v>
       </c>
       <c r="B1031">
-        <v>106.4168090820312</v>
+        <v>144.3896789550781</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8636,7 +8636,7 @@
         <v>10427</v>
       </c>
       <c r="B1032">
-        <v>104.9994735717773</v>
+        <v>144.6598663330078</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8644,7 +8644,7 @@
         <v>10427.5</v>
       </c>
       <c r="B1033">
-        <v>104.8969421386719</v>
+        <v>152.3054351806641</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8652,7 +8652,7 @@
         <v>10428</v>
       </c>
       <c r="B1034">
-        <v>99.52446746826172</v>
+        <v>159.7380828857422</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8660,7 +8660,7 @@
         <v>10428.5</v>
       </c>
       <c r="B1035">
-        <v>99.52446746826172</v>
+        <v>156.4512176513672</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8668,7 +8668,7 @@
         <v>10429</v>
       </c>
       <c r="B1036">
-        <v>105.182746887207</v>
+        <v>153.3742980957031</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8676,7 +8676,7 @@
         <v>10429.5</v>
       </c>
       <c r="B1037">
-        <v>117.9393768310547</v>
+        <v>148.9540863037109</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8684,7 +8684,7 @@
         <v>10430</v>
       </c>
       <c r="B1038">
-        <v>113.1747741699219</v>
+        <v>144.1642303466797</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8692,7 +8692,7 @@
         <v>10430.5</v>
       </c>
       <c r="B1039">
-        <v>112.4094696044922</v>
+        <v>147.2141571044922</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8700,7 +8700,7 @@
         <v>10431</v>
       </c>
       <c r="B1040">
-        <v>97.89070892333984</v>
+        <v>150.8463439941406</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8708,7 +8708,7 @@
         <v>10431.5</v>
       </c>
       <c r="B1041">
-        <v>98.47418975830078</v>
+        <v>155.3951873779297</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8716,7 +8716,7 @@
         <v>10432</v>
       </c>
       <c r="B1042">
-        <v>100.3306198120117</v>
+        <v>153.7931671142578</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8724,7 +8724,7 @@
         <v>10432.5</v>
       </c>
       <c r="B1043">
-        <v>98.84873962402344</v>
+        <v>150.0964660644531</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8732,7 +8732,7 @@
         <v>10433</v>
       </c>
       <c r="B1044">
-        <v>99.55516815185547</v>
+        <v>146.7053985595703</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8740,7 +8740,7 @@
         <v>10433.5</v>
       </c>
       <c r="B1045">
-        <v>103.772705078125</v>
+        <v>148.3209075927734</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8748,7 +8748,7 @@
         <v>10434</v>
       </c>
       <c r="B1046">
-        <v>102.3335189819336</v>
+        <v>150.9954071044922</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8756,7 +8756,7 @@
         <v>10434.5</v>
       </c>
       <c r="B1047">
-        <v>102.3335189819336</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8764,7 +8764,7 @@
         <v>10435</v>
       </c>
       <c r="B1048">
-        <v>102.3335189819336</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8772,7 +8772,7 @@
         <v>10435.5</v>
       </c>
       <c r="B1049">
-        <v>101.719596862793</v>
+        <v>159.9955596923828</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8780,7 +8780,7 @@
         <v>10436</v>
       </c>
       <c r="B1050">
-        <v>96.06131744384766</v>
+        <v>144.2082061767578</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8788,7 +8788,7 @@
         <v>10436.5</v>
       </c>
       <c r="B1051">
-        <v>96.06131744384766</v>
+        <v>143.7977905273438</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8796,7 +8796,7 @@
         <v>10437</v>
       </c>
       <c r="B1052">
-        <v>96.06131744384766</v>
+        <v>145.0878448486328</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8804,7 +8804,7 @@
         <v>10437.5</v>
       </c>
       <c r="B1053">
-        <v>93.20650482177734</v>
+        <v>134.0927581787109</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8812,7 +8812,7 @@
         <v>10438</v>
       </c>
       <c r="B1054">
-        <v>91.73484802246094</v>
+        <v>125.2130508422852</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8820,7 +8820,7 @@
         <v>10438.5</v>
       </c>
       <c r="B1055">
-        <v>91.65615844726562</v>
+        <v>136.7331237792969</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8828,7 +8828,7 @@
         <v>10439</v>
       </c>
       <c r="B1056">
-        <v>98.37350463867188</v>
+        <v>140.6497497558594</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8836,7 +8836,7 @@
         <v>10439.5</v>
       </c>
       <c r="B1057">
-        <v>98.37350463867188</v>
+        <v>111.8266830444336</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8844,7 +8844,7 @@
         <v>10440</v>
       </c>
       <c r="B1058">
-        <v>98.37350463867188</v>
+        <v>110.9229354858398</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8852,7 +8852,7 @@
         <v>10440.5</v>
       </c>
       <c r="B1059">
-        <v>98.22979736328125</v>
+        <v>111.2596893310547</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8860,7 +8860,7 @@
         <v>10441</v>
       </c>
       <c r="B1060">
-        <v>98.22979736328125</v>
+        <v>111.2596893310547</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8868,7 +8868,7 @@
         <v>10441.5</v>
       </c>
       <c r="B1061">
-        <v>98.22979736328125</v>
+        <v>109.4920196533203</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8876,7 +8876,7 @@
         <v>10442</v>
       </c>
       <c r="B1062">
-        <v>98.22979736328125</v>
+        <v>109.4920196533203</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8884,7 +8884,7 @@
         <v>10442.5</v>
       </c>
       <c r="B1063">
-        <v>98.29972076416016</v>
+        <v>109.1786727905273</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8892,7 +8892,7 @@
         <v>10443</v>
       </c>
       <c r="B1064">
-        <v>99.25481414794922</v>
+        <v>108.7012023925781</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8900,7 +8900,7 @@
         <v>10443.5</v>
       </c>
       <c r="B1065">
-        <v>99.66461181640625</v>
+        <v>107.3936309814453</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8908,7 +8908,7 @@
         <v>10444</v>
       </c>
       <c r="B1066">
-        <v>99.66461181640625</v>
+        <v>108.7012023925781</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8916,7 +8916,7 @@
         <v>10444.5</v>
       </c>
       <c r="B1067">
-        <v>99.25481414794922</v>
+        <v>108.9796676635742</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8924,7 +8924,7 @@
         <v>10445</v>
       </c>
       <c r="B1068">
-        <v>98.64841461181641</v>
+        <v>109.8272323608398</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8932,7 +8932,7 @@
         <v>10445.5</v>
       </c>
       <c r="B1069">
-        <v>91.57466888427734</v>
+        <v>119.4258041381836</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8940,7 +8940,7 @@
         <v>10446</v>
       </c>
       <c r="B1070">
-        <v>91.65615844726562</v>
+        <v>137.8506164550781</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8948,7 +8948,7 @@
         <v>10446.5</v>
       </c>
       <c r="B1071">
-        <v>92.90447998046875</v>
+        <v>140.8672943115234</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8956,7 +8956,7 @@
         <v>10447</v>
       </c>
       <c r="B1072">
-        <v>98.56275939941406</v>
+        <v>155.3667144775391</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8964,7 +8964,7 @@
         <v>10447.5</v>
       </c>
       <c r="B1073">
-        <v>98.56275939941406</v>
+        <v>155.3667144775391</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8972,7 +8972,7 @@
         <v>10448</v>
       </c>
       <c r="B1074">
-        <v>98.56275939941406</v>
+        <v>155.3667144775391</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8980,7 +8980,7 @@
         <v>10448.5</v>
       </c>
       <c r="B1075">
-        <v>98.56275939941406</v>
+        <v>155.3667144775391</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8988,7 +8988,7 @@
         <v>10449</v>
       </c>
       <c r="B1076">
-        <v>100.2280807495117</v>
+        <v>147.7929992675781</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8996,7 +8996,7 @@
         <v>10449.5</v>
       </c>
       <c r="B1077">
-        <v>94.58615875244141</v>
+        <v>139.7432556152344</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9004,7 +9004,7 @@
         <v>10450</v>
       </c>
       <c r="B1078">
-        <v>94.58615875244141</v>
+        <v>132.3894805908203</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9012,7 +9012,7 @@
         <v>10450.5</v>
       </c>
       <c r="B1079">
-        <v>94.58615875244141</v>
+        <v>132.3894805908203</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9020,7 +9020,7 @@
         <v>10451</v>
       </c>
       <c r="B1080">
-        <v>94.58615875244141</v>
+        <v>134.9126892089844</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9028,7 +9028,7 @@
         <v>10451.5</v>
       </c>
       <c r="B1081">
-        <v>93.23416900634766</v>
+        <v>134.5708923339844</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9036,7 +9036,7 @@
         <v>10452</v>
       </c>
       <c r="B1082">
-        <v>93.37694549560547</v>
+        <v>140.6038513183594</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9044,7 +9044,7 @@
         <v>10452.5</v>
       </c>
       <c r="B1083">
-        <v>93.37694549560547</v>
+        <v>134.2679595947266</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9052,7 +9052,7 @@
         <v>10453</v>
       </c>
       <c r="B1084">
-        <v>93.37694549560547</v>
+        <v>126.8304977416992</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9060,7 +9060,7 @@
         <v>10453.5</v>
       </c>
       <c r="B1085">
-        <v>93.68384552001953</v>
+        <v>117.5917892456055</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9068,7 +9068,7 @@
         <v>10454</v>
       </c>
       <c r="B1086">
-        <v>93.62576293945312</v>
+        <v>115.8230895996094</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9076,7 +9076,7 @@
         <v>10454.5</v>
       </c>
       <c r="B1087">
-        <v>93.70020294189453</v>
+        <v>118.5940704345703</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9084,7 +9084,7 @@
         <v>10455</v>
       </c>
       <c r="B1088">
-        <v>94.58615875244141</v>
+        <v>134.5708923339844</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9092,7 +9092,7 @@
         <v>10455.5</v>
       </c>
       <c r="B1089">
-        <v>100.2444381713867</v>
+        <v>134.9126892089844</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9100,7 +9100,7 @@
         <v>10456</v>
       </c>
       <c r="B1090">
-        <v>100.2444381713867</v>
+        <v>149.7815399169922</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9108,7 +9108,7 @@
         <v>10456.5</v>
       </c>
       <c r="B1091">
-        <v>100.2444381713867</v>
+        <v>149.3543701171875</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9116,7 +9116,7 @@
         <v>10457</v>
       </c>
       <c r="B1092">
-        <v>100.2444381713867</v>
+        <v>148.3666839599609</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9124,7 +9124,7 @@
         <v>10457.5</v>
       </c>
       <c r="B1093">
-        <v>96.16413879394531</v>
+        <v>151.6092224121094</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9132,7 +9132,7 @@
         <v>10458</v>
       </c>
       <c r="B1094">
-        <v>96.16413879394531</v>
+        <v>151.9426727294922</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9140,7 +9140,7 @@
         <v>10458.5</v>
       </c>
       <c r="B1095">
-        <v>94.37826538085938</v>
+        <v>151.6092224121094</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9148,7 +9148,7 @@
         <v>10459</v>
       </c>
       <c r="B1096">
-        <v>94.58615875244141</v>
+        <v>137.7388763427734</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9156,7 +9156,7 @@
         <v>10459.5</v>
       </c>
       <c r="B1097">
-        <v>100.2444381713867</v>
+        <v>137.7388763427734</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9164,7 +9164,7 @@
         <v>10460</v>
       </c>
       <c r="B1098">
-        <v>100.2444381713867</v>
+        <v>147.7501831054688</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9172,7 +9172,7 @@
         <v>10460.5</v>
       </c>
       <c r="B1099">
-        <v>100.2444381713867</v>
+        <v>150.1640014648438</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9180,7 +9180,7 @@
         <v>10461</v>
       </c>
       <c r="B1100">
-        <v>98.87609100341797</v>
+        <v>149.3380126953125</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9188,7 +9188,7 @@
         <v>10461.5</v>
       </c>
       <c r="B1101">
-        <v>98.56275939941406</v>
+        <v>149.2857666015625</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9196,7 +9196,7 @@
         <v>10462</v>
       </c>
       <c r="B1102">
-        <v>100.2444381713867</v>
+        <v>149.7815399169922</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9204,7 +9204,7 @@
         <v>10462.5</v>
       </c>
       <c r="B1103">
-        <v>101.7357330322266</v>
+        <v>152.9199676513672</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9212,7 +9212,7 @@
         <v>10463</v>
       </c>
       <c r="B1104">
-        <v>103.772705078125</v>
+        <v>154.5553131103516</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -9220,7 +9220,7 @@
         <v>10463.5</v>
       </c>
       <c r="B1105">
-        <v>104.1008224487305</v>
+        <v>144.2238311767578</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9228,7 +9228,7 @@
         <v>10464</v>
       </c>
       <c r="B1106">
-        <v>104.1008224487305</v>
+        <v>144.2238311767578</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9236,7 +9236,7 @@
         <v>10464.5</v>
       </c>
       <c r="B1107">
-        <v>104.1008224487305</v>
+        <v>155.4155120849609</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9244,7 +9244,7 @@
         <v>10465</v>
       </c>
       <c r="B1108">
-        <v>104.2967987060547</v>
+        <v>151.5678558349609</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9252,7 +9252,7 @@
         <v>10465.5</v>
       </c>
       <c r="B1109">
-        <v>105.2852783203125</v>
+        <v>144.9456787109375</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9260,7 +9260,7 @@
         <v>10466</v>
       </c>
       <c r="B1110">
-        <v>105.182746887207</v>
+        <v>143.9507293701172</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9268,7 +9268,7 @@
         <v>10466.5</v>
       </c>
       <c r="B1111">
-        <v>99.52446746826172</v>
+        <v>143.9507293701172</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9276,7 +9276,7 @@
         <v>10467</v>
       </c>
       <c r="B1112">
-        <v>105.3888168334961</v>
+        <v>150.7732543945312</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9284,7 +9284,7 @@
         <v>10467.5</v>
       </c>
       <c r="B1113">
-        <v>105.7387847900391</v>
+        <v>150.7732543945312</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9292,7 +9292,7 @@
         <v>10468</v>
       </c>
       <c r="B1114">
-        <v>106.9500503540039</v>
+        <v>159.3262786865234</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9300,7 +9300,7 @@
         <v>10468.5</v>
       </c>
       <c r="B1115">
-        <v>104.5613098144531</v>
+        <v>152.6550445556641</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9308,7 +9308,7 @@
         <v>10469</v>
       </c>
       <c r="B1116">
-        <v>102.5294952392578</v>
+        <v>149.7051239013672</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9316,7 +9316,7 @@
         <v>10469.5</v>
       </c>
       <c r="B1117">
-        <v>96.67523956298828</v>
+        <v>147.4232025146484</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9324,7 +9324,7 @@
         <v>10470</v>
       </c>
       <c r="B1118">
-        <v>96.8712158203125</v>
+        <v>140.2728729248047</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9332,7 +9332,7 @@
         <v>10470.5</v>
       </c>
       <c r="B1119">
-        <v>104.9353103637695</v>
+        <v>144.9456787109375</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9340,7 +9340,7 @@
         <v>10471</v>
       </c>
       <c r="B1120">
-        <v>107.156120300293</v>
+        <v>150.5030670166016</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9348,7 +9348,7 @@
         <v>10471.5</v>
       </c>
       <c r="B1121">
-        <v>107.156120300293</v>
+        <v>144.8570098876953</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9356,7 +9356,7 @@
         <v>10472</v>
       </c>
       <c r="B1122">
-        <v>105.53271484375</v>
+        <v>143.9507293701172</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9364,7 +9364,7 @@
         <v>10472.5</v>
       </c>
       <c r="B1123">
-        <v>102.5294952392578</v>
+        <v>141.8601226806641</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9372,7 +9372,7 @@
         <v>10473</v>
       </c>
       <c r="B1124">
-        <v>96.67523956298828</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9380,7 +9380,7 @@
         <v>10473.5</v>
       </c>
       <c r="B1125">
-        <v>96.8712158203125</v>
+        <v>149.7051239013672</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9388,7 +9388,7 @@
         <v>10474</v>
       </c>
       <c r="B1126">
-        <v>97.13572692871094</v>
+        <v>142.9473114013672</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9396,7 +9396,7 @@
         <v>10474.5</v>
       </c>
       <c r="B1127">
-        <v>105.182746887207</v>
+        <v>143.9507293701172</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9404,7 +9404,7 @@
         <v>10475</v>
       </c>
       <c r="B1128">
-        <v>107.156120300293</v>
+        <v>150.2168426513672</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9412,7 +9412,7 @@
         <v>10475.5</v>
       </c>
       <c r="B1129">
-        <v>107.156120300293</v>
+        <v>150.7732543945312</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9420,7 +9420,7 @@
         <v>10476</v>
       </c>
       <c r="B1130">
-        <v>105.3110885620117</v>
+        <v>148.1376647949219</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9428,7 +9428,7 @@
         <v>10476.5</v>
       </c>
       <c r="B1131">
-        <v>104.9353103637695</v>
+        <v>160.7330322265625</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9436,7 +9436,7 @@
         <v>10477</v>
       </c>
       <c r="B1132">
-        <v>102.5294952392578</v>
+        <v>149.7051239013672</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9444,7 +9444,7 @@
         <v>10477.5</v>
       </c>
       <c r="B1133">
-        <v>102.3335189819336</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9452,7 +9452,7 @@
         <v>10478</v>
       </c>
       <c r="B1134">
-        <v>102.3335189819336</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9460,7 +9460,7 @@
         <v>10478.5</v>
       </c>
       <c r="B1135">
-        <v>103.772705078125</v>
+        <v>146.8912506103516</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9468,7 +9468,7 @@
         <v>10479</v>
       </c>
       <c r="B1136">
-        <v>103.772705078125</v>
+        <v>143.8134155273438</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9476,7 +9476,7 @@
         <v>10479.5</v>
       </c>
       <c r="B1137">
-        <v>103.8752136230469</v>
+        <v>159.6497802734375</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9484,7 +9484,7 @@
         <v>10480</v>
       </c>
       <c r="B1138">
-        <v>103.772705078125</v>
+        <v>147.9104919433594</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9492,7 +9492,7 @@
         <v>10480.5</v>
       </c>
       <c r="B1139">
-        <v>104.1008224487305</v>
+        <v>149.8698883056641</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9500,7 +9500,7 @@
         <v>10481</v>
       </c>
       <c r="B1140">
-        <v>104.1008224487305</v>
+        <v>144.4940185546875</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9508,7 +9508,7 @@
         <v>10481.5</v>
       </c>
       <c r="B1141">
-        <v>104.1008224487305</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9516,7 +9516,7 @@
         <v>10482</v>
       </c>
       <c r="B1142">
-        <v>104.1008224487305</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9524,7 +9524,7 @@
         <v>10482.5</v>
       </c>
       <c r="B1143">
-        <v>103.772705078125</v>
+        <v>144.2238311767578</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -9532,7 +9532,7 @@
         <v>10483</v>
       </c>
       <c r="B1144">
-        <v>103.772705078125</v>
+        <v>148.3209075927734</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9540,7 +9540,7 @@
         <v>10483.5</v>
       </c>
       <c r="B1145">
-        <v>103.8752136230469</v>
+        <v>161.2787628173828</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9548,7 +9548,7 @@
         <v>10484</v>
       </c>
       <c r="B1146">
-        <v>103.5894088745117</v>
+        <v>160.9929504394531</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9556,7 +9556,7 @@
         <v>10484.5</v>
       </c>
       <c r="B1147">
-        <v>103.4869003295898</v>
+        <v>153.68115234375</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9564,7 +9564,7 @@
         <v>10485</v>
       </c>
       <c r="B1148">
-        <v>104.1008224487305</v>
+        <v>144.4940185546875</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9572,7 +9572,7 @@
         <v>10485.5</v>
       </c>
       <c r="B1149">
-        <v>102.3335189819336</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9580,7 +9580,7 @@
         <v>10486</v>
       </c>
       <c r="B1150">
-        <v>96.67523956298828</v>
+        <v>151.8878479003906</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -9588,7 +9588,7 @@
         <v>10486.5</v>
       </c>
       <c r="B1151">
-        <v>96.8712158203125</v>
+        <v>149.7051239013672</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9596,7 +9596,7 @@
         <v>10487</v>
       </c>
       <c r="B1152">
-        <v>96.8712158203125</v>
+        <v>141.2626953125</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9604,7 +9604,7 @@
         <v>10487.5</v>
       </c>
       <c r="B1153">
-        <v>99.52446746826172</v>
+        <v>159.7380828857422</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9612,7 +9612,7 @@
         <v>10488</v>
       </c>
       <c r="B1154">
-        <v>105.3888168334961</v>
+        <v>150.7732543945312</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9620,7 +9620,7 @@
         <v>10488.5</v>
       </c>
       <c r="B1155">
-        <v>107.4414291381836</v>
+        <v>157.3893280029297</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9628,7 +9628,7 @@
         <v>10489</v>
       </c>
       <c r="B1156">
-        <v>112.9497756958008</v>
+        <v>152.5093841552734</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9636,7 +9636,7 @@
         <v>10489.5</v>
       </c>
       <c r="B1157">
-        <v>112.9497756958008</v>
+        <v>158.2992095947266</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -9644,7 +9644,7 @@
         <v>10490</v>
       </c>
       <c r="B1158">
-        <v>112.9497756958008</v>
+        <v>157.2758178710938</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9652,7 +9652,7 @@
         <v>10490.5</v>
       </c>
       <c r="B1159">
-        <v>111.6002502441406</v>
+        <v>152.4759826660156</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9660,7 +9660,7 @@
         <v>10491</v>
       </c>
       <c r="B1160">
-        <v>112.5680541992188</v>
+        <v>161.4532470703125</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9668,7 +9668,7 @@
         <v>10491.5</v>
       </c>
       <c r="B1161">
-        <v>112.9497756958008</v>
+        <v>151.6297607421875</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9676,7 +9676,7 @@
         <v>10492</v>
       </c>
       <c r="B1162">
-        <v>107.4414291381836</v>
+        <v>157.119140625</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -9684,7 +9684,7 @@
         <v>10492.5</v>
       </c>
       <c r="B1163">
-        <v>118.2246856689453</v>
+        <v>154.6001434326172</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -9692,7 +9692,7 @@
         <v>10493</v>
       </c>
       <c r="B1164">
-        <v>118.2925796508789</v>
+        <v>148.7743225097656</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9700,7 +9700,7 @@
         <v>10493.5</v>
       </c>
       <c r="B1165">
-        <v>117.929069519043</v>
+        <v>151.4977874755859</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -9708,7 +9708,7 @@
         <v>10494</v>
       </c>
       <c r="B1166">
-        <v>115.052375793457</v>
+        <v>154.6430358886719</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -9716,7 +9716,7 @@
         <v>10494.5</v>
       </c>
       <c r="B1167">
-        <v>117.929069519043</v>
+        <v>151.4977874755859</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9724,7 +9724,7 @@
         <v>10495</v>
       </c>
       <c r="B1168">
-        <v>117.9393768310547</v>
+        <v>154.6001434326172</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9732,7 +9732,7 @@
         <v>10495.5</v>
       </c>
       <c r="B1169">
-        <v>117.9393768310547</v>
+        <v>148.3976745605469</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -9740,7 +9740,7 @@
         <v>10496</v>
       </c>
       <c r="B1170">
-        <v>106.7026138305664</v>
+        <v>144.6754913330078</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9748,7 +9748,7 @@
         <v>10496.5</v>
       </c>
       <c r="B1171">
-        <v>104.2967987060547</v>
+        <v>149.9755554199219</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9756,7 +9756,7 @@
         <v>10497</v>
       </c>
       <c r="B1172">
-        <v>102.3335189819336</v>
+        <v>142.6987609863281</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9764,7 +9764,7 @@
         <v>10497.5</v>
       </c>
       <c r="B1173">
-        <v>102.3335189819336</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -9772,7 +9772,7 @@
         <v>10498</v>
       </c>
       <c r="B1174">
-        <v>102.3335189819336</v>
+        <v>150.7249755859375</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9780,7 +9780,7 @@
         <v>10498.5</v>
       </c>
       <c r="B1175">
-        <v>103.4771728515625</v>
+        <v>151.8686218261719</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9788,7 +9788,7 @@
         <v>10499</v>
       </c>
       <c r="B1176">
-        <v>104.1348648071289</v>
+        <v>148.4865570068359</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9796,7 +9796,7 @@
         <v>10499.5</v>
       </c>
       <c r="B1177">
-        <v>106.6763687133789</v>
+        <v>154.9275054931641</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9804,7 +9804,7 @@
         <v>10500</v>
       </c>
       <c r="B1178">
-        <v>119.0830307006836</v>
+        <v>155.7437896728516</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9812,7 +9812,7 @@
         <v>10500.5</v>
       </c>
       <c r="B1179">
-        <v>108.0833969116211</v>
+        <v>160.4412536621094</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9820,7 +9820,7 @@
         <v>10501</v>
       </c>
       <c r="B1180">
-        <v>105.2568206787109</v>
+        <v>154.9445037841797</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9828,7 +9828,7 @@
         <v>10501.5</v>
       </c>
       <c r="B1181">
-        <v>110.2539825439453</v>
+        <v>153.3705596923828</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9836,7 +9836,7 @@
         <v>10502</v>
       </c>
       <c r="B1182">
-        <v>119.0727233886719</v>
+        <v>155.7866821289062</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9844,7 +9844,7 @@
         <v>10502.5</v>
       </c>
       <c r="B1183">
-        <v>108.5850830078125</v>
+        <v>161.5496520996094</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9852,7 +9852,7 @@
         <v>10503</v>
       </c>
       <c r="B1184">
-        <v>106.9095306396484</v>
+        <v>158.2747650146484</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -9860,7 +9860,7 @@
         <v>10503.5</v>
       </c>
       <c r="B1185">
-        <v>106.8177795410156</v>
+        <v>154.6730041503906</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9868,7 +9868,7 @@
         <v>10504</v>
       </c>
       <c r="B1186">
-        <v>108.5850830078125</v>
+        <v>152.9402923583984</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -9876,7 +9876,7 @@
         <v>10504.5</v>
       </c>
       <c r="B1187">
-        <v>108.5850830078125</v>
+        <v>150.0977325439453</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
@@ -9884,7 +9884,7 @@
         <v>10505</v>
       </c>
       <c r="B1188">
-        <v>119.1101226806641</v>
+        <v>155.4322052001953</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9892,7 +9892,7 @@
         <v>10505.5</v>
       </c>
       <c r="B1189">
-        <v>119.1101226806641</v>
+        <v>155.0217895507812</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -9900,7 +9900,7 @@
         <v>10506</v>
       </c>
       <c r="B1190">
-        <v>114.0934295654297</v>
+        <v>157.8825836181641</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9908,7 +9908,7 @@
         <v>10506.5</v>
       </c>
       <c r="B1191">
-        <v>112.6760940551758</v>
+        <v>158.4194641113281</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -9916,7 +9916,7 @@
         <v>10507</v>
       </c>
       <c r="B1192">
-        <v>112.3261260986328</v>
+        <v>152.3629913330078</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
@@ -9924,7 +9924,7 @@
         <v>10507.5</v>
       </c>
       <c r="B1193">
-        <v>112.3261260986328</v>
+        <v>152.3629913330078</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -9932,7 +9932,7 @@
         <v>10508</v>
       </c>
       <c r="B1194">
-        <v>112.6760940551758</v>
+        <v>157.003662109375</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9940,7 +9940,7 @@
         <v>10508.5</v>
       </c>
       <c r="B1195">
-        <v>114.0934295654297</v>
+        <v>159.4428558349609</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -9948,7 +9948,7 @@
         <v>10509</v>
       </c>
       <c r="B1196">
-        <v>114.0934295654297</v>
+        <v>157.8638610839844</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -9956,7 +9956,7 @@
         <v>10509.5</v>
       </c>
       <c r="B1197">
-        <v>114.0934295654297</v>
+        <v>157.003662109375</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -9964,7 +9964,7 @@
         <v>10510</v>
       </c>
       <c r="B1198">
-        <v>106.9095306396484</v>
+        <v>158.2747650146484</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -9972,7 +9972,7 @@
         <v>10510.5</v>
       </c>
       <c r="B1199">
-        <v>108.5850830078125</v>
+        <v>146.2708435058594</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -9980,7 +9980,7 @@
         <v>10511</v>
       </c>
       <c r="B1200">
-        <v>108.5850830078125</v>
+        <v>151.6467132568359</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -9988,7 +9988,7 @@
         <v>10511.5</v>
       </c>
       <c r="B1201">
-        <v>119.4633255004883</v>
+        <v>157.8248138427734</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9996,7 +9996,7 @@
         <v>10512</v>
       </c>
       <c r="B1202">
-        <v>127.0526123046875</v>
+        <v>152.9585723876953</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -10004,7 +10004,7 @@
         <v>10512.5</v>
       </c>
       <c r="B1203">
-        <v>113.934928894043</v>
+        <v>152.2105407714844</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -10012,7 +10012,7 @@
         <v>10513</v>
       </c>
       <c r="B1204">
-        <v>121.3724822998047</v>
+        <v>152.7685394287109</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10020,7 +10020,7 @@
         <v>10513.5</v>
       </c>
       <c r="B1205">
-        <v>121.9032516479492</v>
+        <v>158.4326324462891</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -10028,7 +10028,7 @@
         <v>10514</v>
       </c>
       <c r="B1206">
-        <v>125.0140838623047</v>
+        <v>166.636962890625</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10036,7 +10036,7 @@
         <v>10514.5</v>
       </c>
       <c r="B1207">
-        <v>114.230827331543</v>
+        <v>166.4953460693359</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -10044,7 +10044,7 @@
         <v>10515</v>
       </c>
       <c r="B1208">
-        <v>115.1290435791016</v>
+        <v>159.7603149414062</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -10052,7 +10052,7 @@
         <v>10515.5</v>
       </c>
       <c r="B1209">
-        <v>114.0934295654297</v>
+        <v>158.4194641113281</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
@@ -10060,7 +10060,7 @@
         <v>10516</v>
       </c>
       <c r="B1210">
-        <v>106.9095306396484</v>
+        <v>154.414794921875</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10068,7 +10068,7 @@
         <v>10516.5</v>
       </c>
       <c r="B1211">
-        <v>106.8177795410156</v>
+        <v>156.9539794921875</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -10076,7 +10076,7 @@
         <v>10517</v>
       </c>
       <c r="B1212">
-        <v>112.6760940551758</v>
+        <v>158.4194641113281</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10084,7 +10084,7 @@
         <v>10517.5</v>
       </c>
       <c r="B1213">
-        <v>114.0934295654297</v>
+        <v>155.5828857421875</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10092,7 +10092,7 @@
         <v>10518</v>
       </c>
       <c r="B1214">
-        <v>114.1612396240234</v>
+        <v>159.5106658935547</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10100,7 +10100,7 @@
         <v>10518.5</v>
       </c>
       <c r="B1215">
-        <v>123.9784698486328</v>
+        <v>161.6907501220703</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10108,7 +10108,7 @@
         <v>10519</v>
       </c>
       <c r="B1216">
-        <v>119.4633255004883</v>
+        <v>160.9700622558594</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10116,7 +10116,7 @@
         <v>10519.5</v>
       </c>
       <c r="B1217">
-        <v>119.5272674560547</v>
+        <v>152.2960662841797</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10124,7 +10124,7 @@
         <v>10520</v>
       </c>
       <c r="B1218">
-        <v>116.4813385009766</v>
+        <v>153.5057067871094</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10132,7 +10132,7 @@
         <v>10520.5</v>
       </c>
       <c r="B1219">
-        <v>116.6335372924805</v>
+        <v>150.4974517822266</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10140,7 +10140,7 @@
         <v>10521</v>
       </c>
       <c r="B1220">
-        <v>116.6335372924805</v>
+        <v>143.9175567626953</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -10148,7 +10148,7 @@
         <v>10521.5</v>
       </c>
       <c r="B1221">
-        <v>121.6306991577148</v>
+        <v>142.3436126708984</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10156,7 +10156,7 @@
         <v>10522</v>
       </c>
       <c r="B1222">
-        <v>116.6335372924805</v>
+        <v>143.9175567626953</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10164,7 +10164,7 @@
         <v>10522.5</v>
       </c>
       <c r="B1223">
-        <v>116.3753204345703</v>
+        <v>163.5690155029297</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10172,7 +10172,7 @@
         <v>10523</v>
       </c>
       <c r="B1224">
-        <v>121.9032516479492</v>
+        <v>161.4528045654297</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10180,7 +10180,7 @@
         <v>10523.5</v>
       </c>
       <c r="B1225">
-        <v>121.9032516479492</v>
+        <v>161.577880859375</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10188,7 +10188,7 @@
         <v>10524</v>
       </c>
       <c r="B1226">
-        <v>122.0554504394531</v>
+        <v>153.8322906494141</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10196,7 +10196,7 @@
         <v>10524.5</v>
       </c>
       <c r="B1227">
-        <v>122.0554504394531</v>
+        <v>158.2338714599609</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10204,7 +10204,7 @@
         <v>10525</v>
       </c>
       <c r="B1228">
-        <v>124.1373977661133</v>
+        <v>158.7983856201172</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10212,7 +10212,7 @@
         <v>10525.5</v>
       </c>
       <c r="B1229">
-        <v>123.9784698486328</v>
+        <v>156.6002960205078</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10220,7 +10220,7 @@
         <v>10526</v>
       </c>
       <c r="B1230">
-        <v>113.1952133178711</v>
+        <v>161.6907501220703</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -10228,7 +10228,7 @@
         <v>10526.5</v>
       </c>
       <c r="B1231">
-        <v>123.9784698486328</v>
+        <v>156.6002960205078</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10236,7 +10236,7 @@
         <v>10527</v>
       </c>
       <c r="B1232">
-        <v>123.9784698486328</v>
+        <v>156.6002960205078</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10244,7 +10244,7 @@
         <v>10527.5</v>
       </c>
       <c r="B1233">
-        <v>123.9784698486328</v>
+        <v>156.6002960205078</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
@@ -10252,7 +10252,7 @@
         <v>10528</v>
       </c>
       <c r="B1234">
-        <v>123.9784698486328</v>
+        <v>159.4097747802734</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10260,7 +10260,7 @@
         <v>10528.5</v>
       </c>
       <c r="B1235">
-        <v>123.9784698486328</v>
+        <v>156.6002960205078</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10268,7 +10268,7 @@
         <v>10529</v>
       </c>
       <c r="B1236">
-        <v>124.0462799072266</v>
+        <v>162.3857269287109</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
@@ -10276,7 +10276,7 @@
         <v>10529.5</v>
       </c>
       <c r="B1237">
-        <v>124.1136779785156</v>
+        <v>158.77490234375</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10284,7 +10284,7 @@
         <v>10530</v>
       </c>
       <c r="B1238">
-        <v>123.6823577880859</v>
+        <v>158.8581848144531</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10292,7 +10292,7 @@
         <v>10530.5</v>
       </c>
       <c r="B1239">
-        <v>120.8056640625</v>
+        <v>158.8581848144531</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10300,7 +10300,7 @@
         <v>10531</v>
       </c>
       <c r="B1240">
-        <v>123.8515930175781</v>
+        <v>158.5128173828125</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10308,7 +10308,7 @@
         <v>10531.5</v>
       </c>
       <c r="B1241">
-        <v>124.331672668457</v>
+        <v>159.2300109863281</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10316,7 +10316,7 @@
         <v>10532</v>
       </c>
       <c r="B1242">
-        <v>123.9681625366211</v>
+        <v>159.1439971923828</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10324,7 +10324,7 @@
         <v>10532.5</v>
       </c>
       <c r="B1243">
-        <v>123.091064453125</v>
+        <v>158.6770935058594</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10332,7 +10332,7 @@
         <v>10533</v>
       </c>
       <c r="B1244">
-        <v>127.9399566650391</v>
+        <v>156.9548797607422</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10340,7 +10340,7 @@
         <v>10533.5</v>
       </c>
       <c r="B1245">
-        <v>127.0526123046875</v>
+        <v>153.3668823242188</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10348,7 +10348,7 @@
         <v>10534</v>
       </c>
       <c r="B1246">
-        <v>123.4953842163086</v>
+        <v>152.9585723876953</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10356,7 +10356,7 @@
         <v>10534.5</v>
       </c>
       <c r="B1247">
-        <v>117.8152542114258</v>
+        <v>152.7685394287109</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -10364,7 +10364,7 @@
         <v>10535</v>
       </c>
       <c r="B1248">
-        <v>119.9008636474609</v>
+        <v>152.5447692871094</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10372,7 +10372,7 @@
         <v>10535.5</v>
       </c>
       <c r="B1249">
-        <v>119.9008636474609</v>
+        <v>152.8114624023438</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10380,7 +10380,7 @@
         <v>10536</v>
       </c>
       <c r="B1250">
-        <v>119.932746887207</v>
+        <v>153.7140808105469</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -10388,7 +10388,7 @@
         <v>10536.5</v>
       </c>
       <c r="B1251">
-        <v>119.6598815917969</v>
+        <v>153.1583404541016</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -10396,7 +10396,7 @@
         <v>10537</v>
       </c>
       <c r="B1252">
-        <v>120.7882080078125</v>
+        <v>152.4934997558594</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -10404,7 +10404,7 @@
         <v>10537.5</v>
       </c>
       <c r="B1253">
-        <v>124.3107147216797</v>
+        <v>152.4934997558594</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -10412,7 +10412,7 @@
         <v>10538</v>
       </c>
       <c r="B1254">
-        <v>127.6541519165039</v>
+        <v>151.9538726806641</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10420,7 +10420,7 @@
         <v>10538.5</v>
       </c>
       <c r="B1255">
-        <v>126.6863479614258</v>
+        <v>153.0006103515625</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
@@ -10428,7 +10428,7 @@
         <v>10539</v>
       </c>
       <c r="B1256">
-        <v>126.6863479614258</v>
+        <v>153.0006103515625</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10436,7 +10436,7 @@
         <v>10539.5</v>
       </c>
       <c r="B1257">
-        <v>122.8052597045898</v>
+        <v>164.6302490234375</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -10444,7 +10444,7 @@
         <v>10540</v>
       </c>
       <c r="B1258">
-        <v>124.1136779785156</v>
+        <v>158.77490234375</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10452,7 +10452,7 @@
         <v>10540.5</v>
       </c>
       <c r="B1259">
-        <v>123.8515930175781</v>
+        <v>158.5128173828125</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10460,7 +10460,7 @@
         <v>10541</v>
       </c>
       <c r="B1260">
-        <v>118.8140106201172</v>
+        <v>157.6900939941406</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10468,7 +10468,7 @@
         <v>10541.5</v>
       </c>
       <c r="B1261">
-        <v>115.9373168945312</v>
+        <v>160.9769592285156</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -10476,7 +10476,7 @@
         <v>10542</v>
       </c>
       <c r="B1262">
-        <v>123.6823577880859</v>
+        <v>158.8581848144531</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10484,7 +10484,7 @@
         <v>10542.5</v>
       </c>
       <c r="B1263">
-        <v>124.0458679199219</v>
+        <v>156.1347198486328</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10492,7 +10492,7 @@
         <v>10543</v>
       </c>
       <c r="B1264">
-        <v>123.6926651000977</v>
+        <v>155.6373748779297</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -10500,7 +10500,7 @@
         <v>10543.5</v>
       </c>
       <c r="B1265">
-        <v>123.6926651000977</v>
+        <v>155.9040679931641</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
@@ -10508,7 +10508,7 @@
         <v>10544</v>
       </c>
       <c r="B1266">
-        <v>123.6926651000977</v>
+        <v>155.9040679931641</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10516,7 +10516,7 @@
         <v>10544.5</v>
       </c>
       <c r="B1267">
-        <v>119.0998153686523</v>
+        <v>157.9759063720703</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
@@ -10524,7 +10524,7 @@
         <v>10545</v>
       </c>
       <c r="B1268">
-        <v>121.3448944091797</v>
+        <v>142.0578002929688</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10532,7 +10532,7 @@
         <v>10545.5</v>
       </c>
       <c r="B1269">
-        <v>114.1931457519531</v>
+        <v>141.6439971923828</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10540,7 +10540,7 @@
         <v>10546</v>
       </c>
       <c r="B1270">
-        <v>114.1931457519531</v>
+        <v>141.6439971923828</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
@@ -10548,7 +10548,7 @@
         <v>10546.5</v>
       </c>
       <c r="B1271">
-        <v>121.0866775512695</v>
+        <v>152.6243438720703</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10556,7 +10556,7 @@
         <v>10547</v>
       </c>
       <c r="B1272">
-        <v>126.7668075561523</v>
+        <v>152.6727600097656</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
@@ -10564,7 +10564,7 @@
         <v>10547.5</v>
       </c>
       <c r="B1273">
-        <v>121.769645690918</v>
+        <v>153.9876403808594</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -10572,7 +10572,7 @@
         <v>10548</v>
       </c>
       <c r="B1274">
-        <v>121.769645690918</v>
+        <v>160.4530639648438</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -10580,7 +10580,7 @@
         <v>10548.5</v>
       </c>
       <c r="B1275">
-        <v>123.6823577880859</v>
+        <v>158.8581848144531</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
@@ -10588,7 +10588,7 @@
         <v>10549</v>
       </c>
       <c r="B1276">
-        <v>124.0458679199219</v>
+        <v>161.9939575195312</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10596,7 +10596,7 @@
         <v>10549.5</v>
       </c>
       <c r="B1277">
-        <v>106.8856430053711</v>
+        <v>161.9939575195312</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10604,7 +10604,7 @@
         <v>10550</v>
       </c>
       <c r="B1278">
-        <v>108.2712249755859</v>
+        <v>162.884521484375</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10612,7 +10612,7 @@
         <v>10550.5</v>
       </c>
       <c r="B1279">
-        <v>108.2712249755859</v>
+        <v>162.884521484375</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
@@ -10620,7 +10620,7 @@
         <v>10551</v>
       </c>
       <c r="B1280">
-        <v>108.2712249755859</v>
+        <v>162.884521484375</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10628,7 +10628,7 @@
         <v>10551.5</v>
       </c>
       <c r="B1281">
-        <v>106.3088226318359</v>
+        <v>160.8258666992188</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10636,7 +10636,7 @@
         <v>10552</v>
       </c>
       <c r="B1282">
-        <v>102.0121688842773</v>
+        <v>146.2160186767578</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10644,7 +10644,7 @@
         <v>10552.5</v>
       </c>
       <c r="B1283">
-        <v>99.40449523925781</v>
+        <v>162.4538116455078</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10652,7 +10652,7 @@
         <v>10553</v>
       </c>
       <c r="B1284">
-        <v>98.26686859130859</v>
+        <v>152.5356140136719</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10660,7 +10660,7 @@
         <v>10553.5</v>
       </c>
       <c r="B1285">
-        <v>98.19308471679688</v>
+        <v>142.7891540527344</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10668,7 +10668,7 @@
         <v>10554</v>
       </c>
       <c r="B1286">
-        <v>98.47888946533203</v>
+        <v>143.0749664306641</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -10676,7 +10676,7 @@
         <v>10554.5</v>
       </c>
       <c r="B1287">
-        <v>98.40896606445312</v>
+        <v>153.9520568847656</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10684,7 +10684,7 @@
         <v>10555</v>
       </c>
       <c r="B1288">
-        <v>98.55267333984375</v>
+        <v>150.2797698974609</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -10692,7 +10692,7 @@
         <v>10555.5</v>
       </c>
       <c r="B1289">
-        <v>98.49045562744141</v>
+        <v>156.1220703125</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10700,7 +10700,7 @@
         <v>10556</v>
       </c>
       <c r="B1290">
-        <v>98.49045562744141</v>
+        <v>159.8703155517578</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -10708,7 +10708,7 @@
         <v>10556.5</v>
       </c>
       <c r="B1291">
-        <v>98.49045562744141</v>
+        <v>159.8703155517578</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -10716,7 +10716,7 @@
         <v>10557</v>
       </c>
       <c r="B1292">
-        <v>98.49045562744141</v>
+        <v>155.3839263916016</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10724,7 +10724,7 @@
         <v>10557.5</v>
       </c>
       <c r="B1293">
-        <v>98.49045562744141</v>
+        <v>159.8703155517578</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -10732,7 +10732,7 @@
         <v>10558</v>
       </c>
       <c r="B1294">
-        <v>98.49045562744141</v>
+        <v>150.2633361816406</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10740,7 +10740,7 @@
         <v>10558.5</v>
       </c>
       <c r="B1295">
-        <v>98.12316131591797</v>
+        <v>153.6662445068359</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10748,7 +10748,7 @@
         <v>10559</v>
       </c>
       <c r="B1296">
-        <v>98.19308471679688</v>
+        <v>142.7891540527344</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -10756,7 +10756,7 @@
         <v>10559.5</v>
       </c>
       <c r="B1297">
-        <v>98.19308471679688</v>
+        <v>142.7335662841797</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10764,7 +10764,7 @@
         <v>10560</v>
       </c>
       <c r="B1298">
-        <v>98.12316131591797</v>
+        <v>147.4384460449219</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10772,7 +10772,7 @@
         <v>10560.5</v>
       </c>
       <c r="B1299">
-        <v>98.40896606445312</v>
+        <v>153.3376922607422</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10780,7 +10780,7 @@
         <v>10561</v>
       </c>
       <c r="B1300">
-        <v>98.40896606445312</v>
+        <v>153.3376922607422</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10788,7 +10788,7 @@
         <v>10561.5</v>
       </c>
       <c r="B1301">
-        <v>98.40896606445312</v>
+        <v>154.2035675048828</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10796,7 +10796,7 @@
         <v>10562</v>
       </c>
       <c r="B1302">
-        <v>98.40896606445312</v>
+        <v>154.2035675048828</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10804,7 +10804,7 @@
         <v>10562.5</v>
       </c>
       <c r="B1303">
-        <v>98.40896606445312</v>
+        <v>147.7242584228516</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10812,7 +10812,7 @@
         <v>10563</v>
       </c>
       <c r="B1304">
-        <v>98.47888946533203</v>
+        <v>147.794189453125</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10820,7 +10820,7 @@
         <v>10563.5</v>
       </c>
       <c r="B1305">
-        <v>98.40896606445312</v>
+        <v>154.2035675048828</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10828,7 +10828,7 @@
         <v>10564</v>
       </c>
       <c r="B1306">
-        <v>98.40896606445312</v>
+        <v>154.2035675048828</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10836,7 +10836,7 @@
         <v>10564.5</v>
       </c>
       <c r="B1307">
-        <v>98.40896606445312</v>
+        <v>154.2035675048828</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10844,7 +10844,7 @@
         <v>10565</v>
       </c>
       <c r="B1308">
-        <v>98.40896606445312</v>
+        <v>153.3376922607422</v>
       </c>
     </row>
   </sheetData>
